--- a/exports/scores.xlsx
+++ b/exports/scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="87">
   <si>
     <t>Show Number</t>
   </si>
@@ -199,6 +199,9 @@
     <t>Atlanta CV</t>
   </si>
   <si>
+    <t>Battalion</t>
+  </si>
+  <si>
     <t>Rockford, Michigan</t>
   </si>
   <si>
@@ -263,6 +266,15 @@
   </si>
   <si>
     <t>Newnan, Georgia</t>
+  </si>
+  <si>
+    <t>Ogden, Utah</t>
+  </si>
+  <si>
+    <t>Dubuque, Iowa</t>
+  </si>
+  <si>
+    <t>Muscle Shoals, Alabama</t>
   </si>
 </sst>
 </file>
@@ -624,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V147"/>
+  <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +721,7 @@
         <v>45469</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -760,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>8.680718956092775</v>
+        <v>8.840745609309337</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -777,7 +789,7 @@
         <v>45469</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -828,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>5.830718956092781</v>
+        <v>5.990745609309343</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -845,7 +857,7 @@
         <v>45469</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -896,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>3.930718956092775</v>
+        <v>4.090745609309337</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -913,7 +925,7 @@
         <v>45469</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -964,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>2.330718956092781</v>
+        <v>2.490745609309343</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -981,7 +993,7 @@
         <v>45469</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1032,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1.080718956092781</v>
+        <v>1.240745609309343</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1049,7 +1061,7 @@
         <v>45471</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1100,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>9.342415361735618</v>
+        <v>9.439399849154185</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1117,7 +1129,7 @@
         <v>45471</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1168,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <v>9.142415361735615</v>
+        <v>9.239399849154182</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1185,7 +1197,7 @@
         <v>45471</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1236,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="V9">
-        <v>6.592415361735618</v>
+        <v>6.689399849154185</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1253,7 +1265,7 @@
         <v>45471</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1304,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="V10">
-        <v>3.542415361735607</v>
+        <v>3.639399849154174</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1321,7 +1333,7 @@
         <v>45471</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1372,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="V11">
-        <v>1.642415361735615</v>
+        <v>1.739399849154182</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1389,7 +1401,7 @@
         <v>45471</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1440,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="V12">
-        <v>1.542415361735607</v>
+        <v>1.639399849154174</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1457,7 +1469,7 @@
         <v>45471</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1508,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="V13">
-        <v>11.04241536173561</v>
+        <v>11.13939984915417</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1525,7 +1537,7 @@
         <v>45471</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1576,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="V14">
-        <v>7.092415361735618</v>
+        <v>7.189399849154185</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1593,7 +1605,7 @@
         <v>45471</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1644,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="V15">
-        <v>6.092415361735618</v>
+        <v>6.189399849154185</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1661,7 +1673,7 @@
         <v>45471</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -1712,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>-1.25758463826439</v>
+        <v>-1.160600150845823</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1729,7 +1741,7 @@
         <v>45471</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1780,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="V17">
-        <v>-3.607584638264385</v>
+        <v>-3.510600150845818</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1797,7 +1809,7 @@
         <v>45471</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1848,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="V18">
-        <v>-6.557584638264387</v>
+        <v>-6.460600150845821</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1865,7 +1877,7 @@
         <v>45471</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1916,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="V19">
-        <v>-13.55758463826439</v>
+        <v>-13.46060015084582</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1933,7 +1945,7 @@
         <v>45471</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1984,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="V20">
-        <v>-15.70758463826439</v>
+        <v>-15.61060015084582</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -2001,7 +2013,7 @@
         <v>45471</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2052,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="V21">
-        <v>-18.85758463826438</v>
+        <v>-18.76060015084582</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2069,7 +2081,7 @@
         <v>45472</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2120,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="V22">
-        <v>1.823263564557038</v>
+        <v>1.8887269690766</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2137,7 +2149,7 @@
         <v>45472</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2188,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="V23">
-        <v>1.423263564557033</v>
+        <v>1.488726969076595</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2205,7 +2217,7 @@
         <v>45472</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -2256,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="V24">
-        <v>-0.3267364354429674</v>
+        <v>-0.2612730309234053</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2273,7 +2285,7 @@
         <v>45472</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2324,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="V25">
-        <v>-11.22673643544296</v>
+        <v>-11.1612730309234</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2341,7 +2353,7 @@
         <v>45472</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2392,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="V26">
-        <v>-0.1767364354429617</v>
+        <v>-0.1112730309233996</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2409,7 +2421,7 @@
         <v>45472</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2460,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="V27">
-        <v>-5.776736435442963</v>
+        <v>-5.711273030923401</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2477,7 +2489,7 @@
         <v>45472</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2528,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="V28">
-        <v>-12.82673643544296</v>
+        <v>-12.7612730309234</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2545,7 +2557,7 @@
         <v>45472</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -2596,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="V29">
-        <v>10.77326356455704</v>
+        <v>10.8387269690766</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2613,7 +2625,7 @@
         <v>45472</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2664,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="V30">
-        <v>8.273263564557041</v>
+        <v>8.338726969076603</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2681,7 +2693,7 @@
         <v>45472</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2732,7 +2744,7 @@
         <v>3</v>
       </c>
       <c r="V31">
-        <v>8.123263564557035</v>
+        <v>8.188726969076598</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2749,7 +2761,7 @@
         <v>45472</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -2800,7 +2812,7 @@
         <v>3</v>
       </c>
       <c r="V32">
-        <v>1.923263564557033</v>
+        <v>1.988726969076595</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2817,7 +2829,7 @@
         <v>45472</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2868,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="V33">
-        <v>0.1232635645570355</v>
+        <v>0.1887269690765976</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2885,7 +2897,7 @@
         <v>45472</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2936,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="V34">
-        <v>-1.976736435442959</v>
+        <v>-1.911273030923397</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2953,7 +2965,7 @@
         <v>45472</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -3004,7 +3016,7 @@
         <v>3</v>
       </c>
       <c r="V35">
-        <v>10.92326356455703</v>
+        <v>10.98872696907659</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3021,7 +3033,7 @@
         <v>45472</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3072,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="V36">
-        <v>6.173263564557033</v>
+        <v>6.238726969076595</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3089,7 +3101,7 @@
         <v>45472</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -3140,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="V37">
-        <v>5.073263564557038</v>
+        <v>5.1387269690766</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3157,7 +3169,7 @@
         <v>45472</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -3208,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="V38">
-        <v>-3.476736435442959</v>
+        <v>-3.411273030923397</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3225,7 +3237,7 @@
         <v>45472</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -3276,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="V39">
-        <v>-2.476736435442959</v>
+        <v>-2.411273030923397</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3293,7 +3305,7 @@
         <v>45472</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -3344,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="V40">
-        <v>-6.726736435442959</v>
+        <v>-6.661273030923397</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3361,7 +3373,7 @@
         <v>45472</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -3412,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="V41">
-        <v>-16.17673643544296</v>
+        <v>-16.1112730309234</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3429,7 +3441,7 @@
         <v>45472</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3480,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="V42">
-        <v>-17.02673643544296</v>
+        <v>-16.9612730309234</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3497,7 +3509,7 @@
         <v>45472</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -3548,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="V43">
-        <v>-20.37673643544296</v>
+        <v>-20.3112730309234</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3565,7 +3577,7 @@
         <v>45473</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -3616,7 +3628,7 @@
         <v>4</v>
       </c>
       <c r="V44">
-        <v>10.30411176737844</v>
+        <v>10.33805408899902</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3633,7 +3645,7 @@
         <v>45473</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -3684,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="V45">
-        <v>9.804111767378444</v>
+        <v>9.838054088999016</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3701,7 +3713,7 @@
         <v>45473</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -3752,7 +3764,7 @@
         <v>4</v>
       </c>
       <c r="V46">
-        <v>7.004111767378447</v>
+        <v>7.038054088999019</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3769,7 +3781,7 @@
         <v>45473</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -3820,7 +3832,7 @@
         <v>4</v>
       </c>
       <c r="V47">
-        <v>5.054111767378444</v>
+        <v>5.088054088999016</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3837,7 +3849,7 @@
         <v>45473</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -3888,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="V48">
-        <v>3.904111767378453</v>
+        <v>3.938054088999024</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3905,7 +3917,7 @@
         <v>45473</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -3956,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="V49">
-        <v>3.604111767378456</v>
+        <v>3.638054088999027</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3973,7 +3985,7 @@
         <v>45473</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4024,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="V50">
-        <v>0.6041117673784555</v>
+        <v>0.6380540889990272</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4041,7 +4053,7 @@
         <v>45473</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4092,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="V51">
-        <v>-9.345888232621547</v>
+        <v>-9.311945911000976</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4109,7 +4121,7 @@
         <v>45473</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -4160,7 +4172,7 @@
         <v>4</v>
       </c>
       <c r="V52">
-        <v>10.50411176737845</v>
+        <v>10.53805408899902</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4177,7 +4189,7 @@
         <v>45473</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4228,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="V53">
-        <v>6.754111767378447</v>
+        <v>6.788054088999019</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4245,7 +4257,7 @@
         <v>45473</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -4296,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="V54">
-        <v>6.154111767378453</v>
+        <v>6.188054088999024</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4313,7 +4325,7 @@
         <v>45473</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -4364,7 +4376,7 @@
         <v>4</v>
       </c>
       <c r="V55">
-        <v>-2.79588823262155</v>
+        <v>-2.761945911000979</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4381,7 +4393,7 @@
         <v>45473</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -4432,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="V56">
-        <v>-2.945888232621549</v>
+        <v>-2.911945911000977</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4449,7 +4461,7 @@
         <v>45473</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -4500,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="V57">
-        <v>-6.54588823262155</v>
+        <v>-6.511945911000979</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4517,7 +4529,7 @@
         <v>45473</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -4568,7 +4580,7 @@
         <v>4</v>
       </c>
       <c r="V58">
-        <v>-15.54588823262155</v>
+        <v>-15.51194591100098</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4585,7 +4597,7 @@
         <v>45473</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -4636,7 +4648,7 @@
         <v>4</v>
       </c>
       <c r="V59">
-        <v>-15.74588823262155</v>
+        <v>-15.71194591100098</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4653,7 +4665,7 @@
         <v>45473</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -4704,7 +4716,7 @@
         <v>4</v>
       </c>
       <c r="V60">
-        <v>-20.09588823262155</v>
+        <v>-20.06194591100098</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4721,7 +4733,7 @@
         <v>45475</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -4772,7 +4784,7 @@
         <v>6</v>
       </c>
       <c r="V61">
-        <v>10.7158081730213</v>
+        <v>10.68670832884386</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4789,7 +4801,7 @@
         <v>45475</v>
       </c>
       <c r="E62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -4840,7 +4852,7 @@
         <v>6</v>
       </c>
       <c r="V62">
-        <v>10.4158081730213</v>
+        <v>10.38670832884387</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4857,7 +4869,7 @@
         <v>45475</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -4908,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="V63">
-        <v>9.915808173021304</v>
+        <v>9.886708328843866</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4925,7 +4937,7 @@
         <v>45475</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4976,7 +4988,7 @@
         <v>6</v>
       </c>
       <c r="V64">
-        <v>7.565808173021296</v>
+        <v>7.536708328843858</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4993,7 +5005,7 @@
         <v>45475</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -5044,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="V65">
-        <v>6.915808173021304</v>
+        <v>6.886708328843866</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -5061,7 +5073,7 @@
         <v>45476</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -5112,7 +5124,7 @@
         <v>7</v>
       </c>
       <c r="V66">
-        <v>6.39665637584271</v>
+        <v>6.336035448766282</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5129,7 +5141,7 @@
         <v>45476</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -5180,7 +5192,7 @@
         <v>7</v>
       </c>
       <c r="V67">
-        <v>4.696656375842707</v>
+        <v>4.636035448766279</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5197,7 +5209,7 @@
         <v>45476</v>
       </c>
       <c r="E68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -5248,7 +5260,7 @@
         <v>7</v>
       </c>
       <c r="V68">
-        <v>4.496656375842718</v>
+        <v>4.43603544876629</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5265,7 +5277,7 @@
         <v>45476</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5316,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="V69">
-        <v>1.546656375842716</v>
+        <v>1.486035448766287</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5333,7 +5345,7 @@
         <v>45476</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5384,7 +5396,7 @@
         <v>7</v>
       </c>
       <c r="V70">
-        <v>-11.90334362415729</v>
+        <v>-11.96396455123372</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5401,7 +5413,7 @@
         <v>45478</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -5452,7 +5464,7 @@
         <v>9</v>
       </c>
       <c r="V71">
-        <v>10.70835278148554</v>
+        <v>10.58468968861114</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5469,7 +5481,7 @@
         <v>45478</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -5520,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="V72">
-        <v>6.708352781485544</v>
+        <v>6.584689688611135</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5537,7 +5549,7 @@
         <v>45478</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -5588,7 +5600,7 @@
         <v>9</v>
       </c>
       <c r="V73">
-        <v>6.008352781485556</v>
+        <v>5.884689688611147</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5605,7 +5617,7 @@
         <v>45478</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -5656,7 +5668,7 @@
         <v>9</v>
       </c>
       <c r="V74">
-        <v>-1.241647218514444</v>
+        <v>-1.365310311388853</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5673,7 +5685,7 @@
         <v>45478</v>
       </c>
       <c r="E75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -5724,7 +5736,7 @@
         <v>9</v>
       </c>
       <c r="V75">
-        <v>-4.39164721851445</v>
+        <v>-4.515310311388859</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5741,7 +5753,7 @@
         <v>45478</v>
       </c>
       <c r="E76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -5792,7 +5804,7 @@
         <v>9</v>
       </c>
       <c r="V76">
-        <v>1.558352781485553</v>
+        <v>1.434689688611144</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5809,7 +5821,7 @@
         <v>45478</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -5860,7 +5872,7 @@
         <v>9</v>
       </c>
       <c r="V77">
-        <v>-0.2916472185144556</v>
+        <v>-0.4153103113888648</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5877,7 +5889,7 @@
         <v>45478</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -5928,7 +5940,7 @@
         <v>9</v>
       </c>
       <c r="V78">
-        <v>-8.241647218514451</v>
+        <v>-8.36531031138886</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5945,7 +5957,7 @@
         <v>45478</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79">
         <v>4</v>
@@ -5996,7 +6008,7 @@
         <v>9</v>
       </c>
       <c r="V79">
-        <v>7.60835278148555</v>
+        <v>7.484689688611141</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -6013,7 +6025,7 @@
         <v>45478</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -6064,7 +6076,7 @@
         <v>9</v>
       </c>
       <c r="V80">
-        <v>6.008352781485556</v>
+        <v>5.884689688611147</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -6081,7 +6093,7 @@
         <v>45478</v>
       </c>
       <c r="E81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -6132,7 +6144,7 @@
         <v>9</v>
       </c>
       <c r="V81">
-        <v>4.208352781485544</v>
+        <v>4.084689688611135</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6149,7 +6161,7 @@
         <v>45478</v>
       </c>
       <c r="E82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -6200,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="V82">
-        <v>1.458352781485544</v>
+        <v>1.334689688611135</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6217,7 +6229,7 @@
         <v>45478</v>
       </c>
       <c r="E83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -6268,7 +6280,7 @@
         <v>9</v>
       </c>
       <c r="V83">
-        <v>-8.291647218514449</v>
+        <v>-8.415310311388858</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6285,7 +6297,7 @@
         <v>45478</v>
       </c>
       <c r="E84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -6336,7 +6348,7 @@
         <v>9</v>
       </c>
       <c r="V84">
-        <v>-10.59164721851445</v>
+        <v>-10.71531031138886</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6353,7 +6365,7 @@
         <v>45479</v>
       </c>
       <c r="E85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -6404,7 +6416,7 @@
         <v>10</v>
       </c>
       <c r="V85">
-        <v>10.78920098430697</v>
+        <v>10.63401680853356</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6421,7 +6433,7 @@
         <v>45479</v>
       </c>
       <c r="E86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F86">
         <v>4</v>
@@ -6472,7 +6484,7 @@
         <v>10</v>
       </c>
       <c r="V86">
-        <v>6.08920098430697</v>
+        <v>5.934016808533556</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6489,7 +6501,7 @@
         <v>45479</v>
       </c>
       <c r="E87" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -6540,7 +6552,7 @@
         <v>10</v>
       </c>
       <c r="V87">
-        <v>5.58920098430697</v>
+        <v>5.434016808533556</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6557,7 +6569,7 @@
         <v>45479</v>
       </c>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -6608,7 +6620,7 @@
         <v>10</v>
       </c>
       <c r="V88">
-        <v>0.1892009843069786</v>
+        <v>0.03401680853356481</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6625,7 +6637,7 @@
         <v>45479</v>
       </c>
       <c r="E89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -6676,7 +6688,7 @@
         <v>10</v>
       </c>
       <c r="V89">
-        <v>-3.260799015693024</v>
+        <v>-3.415983191466438</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6693,7 +6705,7 @@
         <v>45479</v>
       </c>
       <c r="E90" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F90">
         <v>5</v>
@@ -6744,7 +6756,7 @@
         <v>10</v>
       </c>
       <c r="V90">
-        <v>-4.510799015693024</v>
+        <v>-4.665983191466438</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6761,7 +6773,7 @@
         <v>45479</v>
       </c>
       <c r="E91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F91">
         <v>4</v>
@@ -6812,7 +6824,7 @@
         <v>10</v>
       </c>
       <c r="V91">
-        <v>-7.260799015693024</v>
+        <v>-7.415983191466438</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6829,7 +6841,7 @@
         <v>45479</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6880,7 +6892,7 @@
         <v>10</v>
       </c>
       <c r="V92">
-        <v>-12.11079901569303</v>
+        <v>-12.26598319146644</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6897,7 +6909,7 @@
         <v>45479</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -6948,7 +6960,7 @@
         <v>10</v>
       </c>
       <c r="V93">
-        <v>-13.36079901569303</v>
+        <v>-13.51598319146644</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6965,7 +6977,7 @@
         <v>45479</v>
       </c>
       <c r="E94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -7016,7 +7028,7 @@
         <v>10</v>
       </c>
       <c r="V94">
-        <v>-14.56079901569302</v>
+        <v>-14.71598319146644</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -7033,7 +7045,7 @@
         <v>45479</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -7084,7 +7096,7 @@
         <v>10</v>
       </c>
       <c r="V95">
-        <v>-18.21079901569303</v>
+        <v>-18.36598319146644</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -7101,7 +7113,7 @@
         <v>45479</v>
       </c>
       <c r="E96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -7152,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="V96">
-        <v>2.389200984306981</v>
+        <v>2.234016808533568</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7169,7 +7181,7 @@
         <v>45479</v>
       </c>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -7220,7 +7232,7 @@
         <v>10</v>
       </c>
       <c r="V97">
-        <v>1.739200984306976</v>
+        <v>1.584016808533562</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7237,7 +7249,7 @@
         <v>45479</v>
       </c>
       <c r="E98" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F98">
         <v>3</v>
@@ -7288,7 +7300,7 @@
         <v>10</v>
       </c>
       <c r="V98">
-        <v>-8.860799015693026</v>
+        <v>-9.015983191466439</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7305,7 +7317,7 @@
         <v>45479</v>
       </c>
       <c r="E99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -7356,7 +7368,7 @@
         <v>10</v>
       </c>
       <c r="V99">
-        <v>-5.560799015693021</v>
+        <v>-5.715983191466435</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7373,7 +7385,7 @@
         <v>45479</v>
       </c>
       <c r="E100" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F100">
         <v>4</v>
@@ -7424,7 +7436,7 @@
         <v>10</v>
       </c>
       <c r="V100">
-        <v>11.38920098430698</v>
+        <v>11.23401680853357</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7441,7 +7453,7 @@
         <v>45479</v>
       </c>
       <c r="E101" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -7492,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="V101">
-        <v>8.639200984306981</v>
+        <v>8.484016808533568</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7509,7 +7521,7 @@
         <v>45479</v>
       </c>
       <c r="E102" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -7560,7 +7572,7 @@
         <v>10</v>
       </c>
       <c r="V102">
-        <v>6.639200984306981</v>
+        <v>6.484016808533568</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7577,7 +7589,7 @@
         <v>45479</v>
       </c>
       <c r="E103" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -7628,7 +7640,7 @@
         <v>10</v>
       </c>
       <c r="V103">
-        <v>5.33920098430697</v>
+        <v>5.184016808533556</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7645,7 +7657,7 @@
         <v>45479</v>
       </c>
       <c r="E104" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F104">
         <v>5</v>
@@ -7696,7 +7708,7 @@
         <v>10</v>
       </c>
       <c r="V104">
-        <v>1.989200984306976</v>
+        <v>1.834016808533562</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7713,7 +7725,7 @@
         <v>45479</v>
       </c>
       <c r="E105" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7764,7 +7776,7 @@
         <v>10</v>
       </c>
       <c r="V105">
-        <v>-9.360799015693026</v>
+        <v>-9.515983191466439</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7781,7 +7793,7 @@
         <v>45479</v>
       </c>
       <c r="E106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -7832,7 +7844,7 @@
         <v>10</v>
       </c>
       <c r="V106">
-        <v>2.189200984306979</v>
+        <v>2.034016808533565</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7849,7 +7861,7 @@
         <v>45480</v>
       </c>
       <c r="E107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F107">
         <v>4</v>
@@ -7900,7 +7912,7 @@
         <v>11</v>
       </c>
       <c r="V107">
-        <v>12.27004918712841</v>
+        <v>12.08334392845599</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7917,7 +7929,7 @@
         <v>45480</v>
       </c>
       <c r="E108" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -7968,7 +7980,7 @@
         <v>11</v>
       </c>
       <c r="V108">
-        <v>9.520049187128407</v>
+        <v>9.333343928455989</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7985,7 +7997,7 @@
         <v>45480</v>
       </c>
       <c r="E109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -8036,7 +8048,7 @@
         <v>11</v>
       </c>
       <c r="V109">
-        <v>5.520049187128407</v>
+        <v>5.333343928455989</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -8053,7 +8065,7 @@
         <v>45480</v>
       </c>
       <c r="E110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -8104,7 +8116,7 @@
         <v>11</v>
       </c>
       <c r="V110">
-        <v>4.420049187128399</v>
+        <v>4.23334392845598</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -8121,7 +8133,7 @@
         <v>45480</v>
       </c>
       <c r="E111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -8172,7 +8184,7 @@
         <v>11</v>
       </c>
       <c r="V111">
-        <v>2.020049187128407</v>
+        <v>1.833343928455989</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8189,7 +8201,7 @@
         <v>45480</v>
       </c>
       <c r="E112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -8240,7 +8252,7 @@
         <v>11</v>
       </c>
       <c r="V112">
-        <v>-9.029950812871597</v>
+        <v>-9.216656071544016</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8257,7 +8269,7 @@
         <v>45480</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F113">
         <v>4</v>
@@ -8308,7 +8320,7 @@
         <v>11</v>
       </c>
       <c r="V113">
-        <v>10.9200491871284</v>
+        <v>10.73334392845598</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8325,7 +8337,7 @@
         <v>45480</v>
       </c>
       <c r="E114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F114">
         <v>5</v>
@@ -8376,7 +8388,7 @@
         <v>11</v>
       </c>
       <c r="V114">
-        <v>7.270049187128407</v>
+        <v>7.083343928455989</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8393,7 +8405,7 @@
         <v>45480</v>
       </c>
       <c r="E115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -8444,7 +8456,7 @@
         <v>11</v>
       </c>
       <c r="V115">
-        <v>6.370049187128402</v>
+        <v>6.183343928455983</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8461,7 +8473,7 @@
         <v>45480</v>
       </c>
       <c r="E116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -8512,7 +8524,7 @@
         <v>11</v>
       </c>
       <c r="V116">
-        <v>-0.07995081287160133</v>
+        <v>-0.2666560715440198</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8529,7 +8541,7 @@
         <v>45480</v>
       </c>
       <c r="E117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -8580,7 +8592,7 @@
         <v>11</v>
       </c>
       <c r="V117">
-        <v>-2.779950812871604</v>
+        <v>-2.966656071544023</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8597,7 +8609,7 @@
         <v>45480</v>
       </c>
       <c r="E118" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F118">
         <v>5</v>
@@ -8648,7 +8660,7 @@
         <v>11</v>
       </c>
       <c r="V118">
-        <v>-3.029950812871604</v>
+        <v>-3.216656071544023</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8665,7 +8677,7 @@
         <v>45480</v>
       </c>
       <c r="E119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F119">
         <v>4</v>
@@ -8716,7 +8728,7 @@
         <v>11</v>
       </c>
       <c r="V119">
-        <v>-6.079950812871601</v>
+        <v>-6.26665607154402</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8733,7 +8745,7 @@
         <v>45480</v>
       </c>
       <c r="E120" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -8784,7 +8796,7 @@
         <v>11</v>
       </c>
       <c r="V120">
-        <v>-12.0299508128716</v>
+        <v>-12.21665607154402</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8801,7 +8813,7 @@
         <v>45480</v>
       </c>
       <c r="E121" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -8852,7 +8864,7 @@
         <v>11</v>
       </c>
       <c r="V121">
-        <v>-12.8799508128716</v>
+        <v>-13.06665607154402</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8869,7 +8881,7 @@
         <v>45480</v>
       </c>
       <c r="E122" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -8920,7 +8932,7 @@
         <v>11</v>
       </c>
       <c r="V122">
-        <v>-18.8799508128716</v>
+        <v>-19.06665607154402</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8937,7 +8949,7 @@
         <v>45481</v>
       </c>
       <c r="E123" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -8988,7 +9000,7 @@
         <v>12</v>
       </c>
       <c r="V123">
-        <v>4.000897389949813</v>
+        <v>3.782671048378404</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -9005,7 +9017,7 @@
         <v>45481</v>
       </c>
       <c r="E124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -9056,7 +9068,7 @@
         <v>12</v>
       </c>
       <c r="V124">
-        <v>2.650897389949819</v>
+        <v>2.43267104837841</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -9073,7 +9085,7 @@
         <v>45481</v>
       </c>
       <c r="E125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -9124,7 +9136,7 @@
         <v>12</v>
       </c>
       <c r="V125">
-        <v>-8.599102610050188</v>
+        <v>-8.817328951621597</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -9141,7 +9153,7 @@
         <v>45481</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -9192,7 +9204,7 @@
         <v>12</v>
       </c>
       <c r="V126">
-        <v>-7.149102610050193</v>
+        <v>-7.367328951621602</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9209,7 +9221,7 @@
         <v>45481</v>
       </c>
       <c r="E127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F127">
         <v>4</v>
@@ -9260,7 +9272,7 @@
         <v>12</v>
       </c>
       <c r="V127">
-        <v>11.70089738994982</v>
+        <v>11.48267104837841</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9277,7 +9289,7 @@
         <v>45481</v>
       </c>
       <c r="E128" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F128">
         <v>3</v>
@@ -9328,7 +9340,7 @@
         <v>12</v>
       </c>
       <c r="V128">
-        <v>2.900897389949819</v>
+        <v>2.68267104837841</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9345,7 +9357,7 @@
         <v>45481</v>
       </c>
       <c r="E129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -9396,7 +9408,7 @@
         <v>12</v>
       </c>
       <c r="V129">
-        <v>-0.5491026100501841</v>
+        <v>-0.7673289516215931</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9413,7 +9425,7 @@
         <v>45481</v>
       </c>
       <c r="E130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -9464,7 +9476,7 @@
         <v>12</v>
       </c>
       <c r="V130">
-        <v>-1.799102610050184</v>
+        <v>-2.017328951621593</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9481,7 +9493,7 @@
         <v>45481</v>
       </c>
       <c r="E131" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -9532,7 +9544,7 @@
         <v>12</v>
       </c>
       <c r="V131">
-        <v>-4.999102610050187</v>
+        <v>-5.217328951621596</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9549,7 +9561,7 @@
         <v>45482</v>
       </c>
       <c r="E132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F132">
         <v>3</v>
@@ -9600,7 +9612,7 @@
         <v>13</v>
       </c>
       <c r="V132">
-        <v>7.631745592771239</v>
+        <v>7.381998168300825</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9617,7 +9629,7 @@
         <v>45482</v>
       </c>
       <c r="E133" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -9668,7 +9680,7 @@
         <v>13</v>
       </c>
       <c r="V133">
-        <v>2.831745592771242</v>
+        <v>2.581998168300828</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9685,7 +9697,7 @@
         <v>45482</v>
       </c>
       <c r="E134" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -9736,7 +9748,7 @@
         <v>13</v>
       </c>
       <c r="V134">
-        <v>1.131745592771239</v>
+        <v>0.8819981683008251</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9753,7 +9765,7 @@
         <v>45482</v>
       </c>
       <c r="E135" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F135">
         <v>4</v>
@@ -9804,7 +9816,7 @@
         <v>13</v>
       </c>
       <c r="V135">
-        <v>-7.568254407228764</v>
+        <v>-7.818001831699178</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9821,7 +9833,7 @@
         <v>45482</v>
       </c>
       <c r="E136" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F136">
         <v>3</v>
@@ -9872,7 +9884,7 @@
         <v>13</v>
       </c>
       <c r="V136">
-        <v>9.031745592771244</v>
+        <v>8.781998168300831</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9889,7 +9901,7 @@
         <v>45482</v>
       </c>
       <c r="E137" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -9940,7 +9952,7 @@
         <v>13</v>
       </c>
       <c r="V137">
-        <v>4.581745592771242</v>
+        <v>4.331998168300828</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9957,7 +9969,7 @@
         <v>45482</v>
       </c>
       <c r="E138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -10008,7 +10020,7 @@
         <v>13</v>
       </c>
       <c r="V138">
-        <v>2.581745592771242</v>
+        <v>2.331998168300828</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -10025,7 +10037,7 @@
         <v>45482</v>
       </c>
       <c r="E139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -10076,7 +10088,7 @@
         <v>13</v>
       </c>
       <c r="V139">
-        <v>-5.718254407228756</v>
+        <v>-5.968001831699169</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -10093,7 +10105,7 @@
         <v>45482</v>
       </c>
       <c r="E140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -10144,7 +10156,7 @@
         <v>13</v>
       </c>
       <c r="V140">
-        <v>-11.26825440722876</v>
+        <v>-11.51800183169917</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10161,7 +10173,7 @@
         <v>45482</v>
       </c>
       <c r="E141" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -10212,7 +10224,7 @@
         <v>13</v>
       </c>
       <c r="V141">
-        <v>-3.318254407228764</v>
+        <v>-3.568001831699178</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10229,7 +10241,7 @@
         <v>45482</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F142">
         <v>3</v>
@@ -10280,7 +10292,7 @@
         <v>13</v>
       </c>
       <c r="V142">
-        <v>12.53174559277124</v>
+        <v>12.28199816830083</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10297,7 +10309,7 @@
         <v>45482</v>
       </c>
       <c r="E143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -10348,7 +10360,7 @@
         <v>13</v>
       </c>
       <c r="V143">
-        <v>3.631745592771239</v>
+        <v>3.381998168300825</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10365,7 +10377,7 @@
         <v>45482</v>
       </c>
       <c r="E144" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -10416,7 +10428,7 @@
         <v>13</v>
       </c>
       <c r="V144">
-        <v>-0.1682544072287584</v>
+        <v>-0.418001831699172</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10433,7 +10445,7 @@
         <v>45482</v>
       </c>
       <c r="E145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -10484,7 +10496,7 @@
         <v>13</v>
       </c>
       <c r="V145">
-        <v>-1.118254407228761</v>
+        <v>-1.368001831699175</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10501,7 +10513,7 @@
         <v>45482</v>
       </c>
       <c r="E146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -10552,7 +10564,7 @@
         <v>13</v>
       </c>
       <c r="V146">
-        <v>-3.718254407228756</v>
+        <v>-3.968001831699169</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10569,7 +10581,7 @@
         <v>45482</v>
       </c>
       <c r="E147" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -10620,7 +10632,1367 @@
         <v>13</v>
       </c>
       <c r="V147">
-        <v>4.281745592771244</v>
+        <v>4.031998168300831</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>24</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E148" t="s">
+        <v>84</v>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+      <c r="G148">
+        <v>16.6</v>
+      </c>
+      <c r="H148">
+        <v>17.1</v>
+      </c>
+      <c r="I148">
+        <v>33.7</v>
+      </c>
+      <c r="J148">
+        <v>16.5</v>
+      </c>
+      <c r="K148">
+        <v>16.3</v>
+      </c>
+      <c r="L148">
+        <v>16.5</v>
+      </c>
+      <c r="M148">
+        <v>24.65</v>
+      </c>
+      <c r="N148">
+        <v>17.1</v>
+      </c>
+      <c r="O148">
+        <v>17</v>
+      </c>
+      <c r="P148">
+        <v>17.2</v>
+      </c>
+      <c r="Q148">
+        <v>25.65</v>
+      </c>
+      <c r="R148">
+        <v>84</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>84</v>
+      </c>
+      <c r="U148">
+        <v>14</v>
+      </c>
+      <c r="V148">
+        <v>10.73132528822325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>24</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E149" t="s">
+        <v>84</v>
+      </c>
+      <c r="F149">
+        <v>6</v>
+      </c>
+      <c r="G149">
+        <v>15.8</v>
+      </c>
+      <c r="H149">
+        <v>16.2</v>
+      </c>
+      <c r="I149">
+        <v>32</v>
+      </c>
+      <c r="J149">
+        <v>16</v>
+      </c>
+      <c r="K149">
+        <v>15.7</v>
+      </c>
+      <c r="L149">
+        <v>15.8</v>
+      </c>
+      <c r="M149">
+        <v>23.75</v>
+      </c>
+      <c r="N149">
+        <v>16.2</v>
+      </c>
+      <c r="O149">
+        <v>16.3</v>
+      </c>
+      <c r="P149">
+        <v>15.8</v>
+      </c>
+      <c r="Q149">
+        <v>24.15</v>
+      </c>
+      <c r="R149">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="U149">
+        <v>14</v>
+      </c>
+      <c r="V149">
+        <v>6.631325288223252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>15.9</v>
+      </c>
+      <c r="H150">
+        <v>16</v>
+      </c>
+      <c r="I150">
+        <v>31.9</v>
+      </c>
+      <c r="J150">
+        <v>15.8</v>
+      </c>
+      <c r="K150">
+        <v>15.6</v>
+      </c>
+      <c r="L150">
+        <v>15.5</v>
+      </c>
+      <c r="M150">
+        <v>23.45</v>
+      </c>
+      <c r="N150">
+        <v>15.9</v>
+      </c>
+      <c r="O150">
+        <v>16.1</v>
+      </c>
+      <c r="P150">
+        <v>16.6</v>
+      </c>
+      <c r="Q150">
+        <v>24.3</v>
+      </c>
+      <c r="R150">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="U150">
+        <v>14</v>
+      </c>
+      <c r="V150">
+        <v>6.381325288223252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
+        <v>50</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E151" t="s">
+        <v>84</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151">
+        <v>15.3</v>
+      </c>
+      <c r="H151">
+        <v>15.2</v>
+      </c>
+      <c r="I151">
+        <v>30.5</v>
+      </c>
+      <c r="J151">
+        <v>15.2</v>
+      </c>
+      <c r="K151">
+        <v>14.8</v>
+      </c>
+      <c r="L151">
+        <v>14.6</v>
+      </c>
+      <c r="M151">
+        <v>22.3</v>
+      </c>
+      <c r="N151">
+        <v>15.8</v>
+      </c>
+      <c r="O151">
+        <v>15.6</v>
+      </c>
+      <c r="P151">
+        <v>16.3</v>
+      </c>
+      <c r="Q151">
+        <v>23.85</v>
+      </c>
+      <c r="R151">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="U151">
+        <v>14</v>
+      </c>
+      <c r="V151">
+        <v>3.381325288223252</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E152" t="s">
+        <v>84</v>
+      </c>
+      <c r="F152">
+        <v>8</v>
+      </c>
+      <c r="G152">
+        <v>14.9</v>
+      </c>
+      <c r="H152">
+        <v>15</v>
+      </c>
+      <c r="I152">
+        <v>29.9</v>
+      </c>
+      <c r="J152">
+        <v>15</v>
+      </c>
+      <c r="K152">
+        <v>15</v>
+      </c>
+      <c r="L152">
+        <v>14.2</v>
+      </c>
+      <c r="M152">
+        <v>22.1</v>
+      </c>
+      <c r="N152">
+        <v>14.6</v>
+      </c>
+      <c r="O152">
+        <v>15.3</v>
+      </c>
+      <c r="P152">
+        <v>15.5</v>
+      </c>
+      <c r="Q152">
+        <v>22.7</v>
+      </c>
+      <c r="R152">
+        <v>74.7</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>74.7</v>
+      </c>
+      <c r="U152">
+        <v>14</v>
+      </c>
+      <c r="V152">
+        <v>1.431325288223249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>24</v>
+      </c>
+      <c r="C153" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E153" t="s">
+        <v>84</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>13.8</v>
+      </c>
+      <c r="H153">
+        <v>14.8</v>
+      </c>
+      <c r="I153">
+        <v>28.6</v>
+      </c>
+      <c r="J153">
+        <v>14.3</v>
+      </c>
+      <c r="K153">
+        <v>13.6</v>
+      </c>
+      <c r="L153">
+        <v>14.5</v>
+      </c>
+      <c r="M153">
+        <v>21.2</v>
+      </c>
+      <c r="N153">
+        <v>14.1</v>
+      </c>
+      <c r="O153">
+        <v>14.5</v>
+      </c>
+      <c r="P153">
+        <v>15.1</v>
+      </c>
+      <c r="Q153">
+        <v>21.85</v>
+      </c>
+      <c r="R153">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="U153">
+        <v>14</v>
+      </c>
+      <c r="V153">
+        <v>-1.618674711776748</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>24</v>
+      </c>
+      <c r="C154" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E154" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>14</v>
+      </c>
+      <c r="H154">
+        <v>14.6</v>
+      </c>
+      <c r="I154">
+        <v>28.6</v>
+      </c>
+      <c r="J154">
+        <v>14.5</v>
+      </c>
+      <c r="K154">
+        <v>13.5</v>
+      </c>
+      <c r="L154">
+        <v>12.8</v>
+      </c>
+      <c r="M154">
+        <v>20.4</v>
+      </c>
+      <c r="N154">
+        <v>14.2</v>
+      </c>
+      <c r="O154">
+        <v>14.2</v>
+      </c>
+      <c r="P154">
+        <v>15</v>
+      </c>
+      <c r="Q154">
+        <v>21.7</v>
+      </c>
+      <c r="R154">
+        <v>70.7</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>70.7</v>
+      </c>
+      <c r="U154">
+        <v>14</v>
+      </c>
+      <c r="V154">
+        <v>-2.568674711776751</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E155" t="s">
+        <v>84</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>12.6</v>
+      </c>
+      <c r="H155">
+        <v>12.9</v>
+      </c>
+      <c r="I155">
+        <v>25.5</v>
+      </c>
+      <c r="J155">
+        <v>13.7</v>
+      </c>
+      <c r="K155">
+        <v>12.5</v>
+      </c>
+      <c r="L155">
+        <v>11.7</v>
+      </c>
+      <c r="M155">
+        <v>18.95</v>
+      </c>
+      <c r="N155">
+        <v>12.9</v>
+      </c>
+      <c r="O155">
+        <v>13.2</v>
+      </c>
+      <c r="P155">
+        <v>12.8</v>
+      </c>
+      <c r="Q155">
+        <v>19.45</v>
+      </c>
+      <c r="R155">
+        <v>63.9</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>63.9</v>
+      </c>
+      <c r="U155">
+        <v>14</v>
+      </c>
+      <c r="V155">
+        <v>-9.368674711776755</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>24</v>
+      </c>
+      <c r="C156" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E156" t="s">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>11.8</v>
+      </c>
+      <c r="H156">
+        <v>12</v>
+      </c>
+      <c r="I156">
+        <v>23.8</v>
+      </c>
+      <c r="J156">
+        <v>12.9</v>
+      </c>
+      <c r="K156">
+        <v>12</v>
+      </c>
+      <c r="L156">
+        <v>11.6</v>
+      </c>
+      <c r="M156">
+        <v>18.25</v>
+      </c>
+      <c r="N156">
+        <v>12.8</v>
+      </c>
+      <c r="O156">
+        <v>12.5</v>
+      </c>
+      <c r="P156">
+        <v>12.1</v>
+      </c>
+      <c r="Q156">
+        <v>18.7</v>
+      </c>
+      <c r="R156">
+        <v>60.75</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>60.75</v>
+      </c>
+      <c r="U156">
+        <v>14</v>
+      </c>
+      <c r="V156">
+        <v>-12.51867471177675</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E157" t="s">
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>16.4</v>
+      </c>
+      <c r="H157">
+        <v>16.6</v>
+      </c>
+      <c r="I157">
+        <v>33</v>
+      </c>
+      <c r="J157">
+        <v>16.5</v>
+      </c>
+      <c r="K157">
+        <v>16.7</v>
+      </c>
+      <c r="L157">
+        <v>16.8</v>
+      </c>
+      <c r="M157">
+        <v>25</v>
+      </c>
+      <c r="N157">
+        <v>16.6</v>
+      </c>
+      <c r="O157">
+        <v>16.4</v>
+      </c>
+      <c r="P157">
+        <v>16.8</v>
+      </c>
+      <c r="Q157">
+        <v>24.9</v>
+      </c>
+      <c r="R157">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="U157">
+        <v>15</v>
+      </c>
+      <c r="V157">
+        <v>8.980652408145673</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>25</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E158" t="s">
+        <v>85</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>15.4</v>
+      </c>
+      <c r="H158">
+        <v>15.8</v>
+      </c>
+      <c r="I158">
+        <v>31.2</v>
+      </c>
+      <c r="J158">
+        <v>15.4</v>
+      </c>
+      <c r="K158">
+        <v>15.9</v>
+      </c>
+      <c r="L158">
+        <v>15.4</v>
+      </c>
+      <c r="M158">
+        <v>23.35</v>
+      </c>
+      <c r="N158">
+        <v>15.8</v>
+      </c>
+      <c r="O158">
+        <v>15.3</v>
+      </c>
+      <c r="P158">
+        <v>16</v>
+      </c>
+      <c r="Q158">
+        <v>23.55</v>
+      </c>
+      <c r="R158">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="U158">
+        <v>15</v>
+      </c>
+      <c r="V158">
+        <v>4.180652408145662</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E159" t="s">
+        <v>85</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159">
+        <v>15.6</v>
+      </c>
+      <c r="H159">
+        <v>15.3</v>
+      </c>
+      <c r="I159">
+        <v>30.9</v>
+      </c>
+      <c r="J159">
+        <v>15.5</v>
+      </c>
+      <c r="K159">
+        <v>16</v>
+      </c>
+      <c r="L159">
+        <v>15.3</v>
+      </c>
+      <c r="M159">
+        <v>23.4</v>
+      </c>
+      <c r="N159">
+        <v>15.5</v>
+      </c>
+      <c r="O159">
+        <v>15.7</v>
+      </c>
+      <c r="P159">
+        <v>16.4</v>
+      </c>
+      <c r="Q159">
+        <v>23.8</v>
+      </c>
+      <c r="R159">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="U159">
+        <v>15</v>
+      </c>
+      <c r="V159">
+        <v>4.180652408145662</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E160" t="s">
+        <v>85</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>15.1</v>
+      </c>
+      <c r="H160">
+        <v>15.5</v>
+      </c>
+      <c r="I160">
+        <v>30.6</v>
+      </c>
+      <c r="J160">
+        <v>16.1</v>
+      </c>
+      <c r="K160">
+        <v>15.6</v>
+      </c>
+      <c r="L160">
+        <v>15.5</v>
+      </c>
+      <c r="M160">
+        <v>23.6</v>
+      </c>
+      <c r="N160">
+        <v>16.2</v>
+      </c>
+      <c r="O160">
+        <v>15.4</v>
+      </c>
+      <c r="P160">
+        <v>16.1</v>
+      </c>
+      <c r="Q160">
+        <v>23.85</v>
+      </c>
+      <c r="R160">
+        <v>78.05</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>78.05</v>
+      </c>
+      <c r="U160">
+        <v>15</v>
+      </c>
+      <c r="V160">
+        <v>4.130652408145664</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E161" t="s">
+        <v>85</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>12.7</v>
+      </c>
+      <c r="H161">
+        <v>14.3</v>
+      </c>
+      <c r="I161">
+        <v>27</v>
+      </c>
+      <c r="J161">
+        <v>13.1</v>
+      </c>
+      <c r="K161">
+        <v>13.8</v>
+      </c>
+      <c r="L161">
+        <v>13.3</v>
+      </c>
+      <c r="M161">
+        <v>20.1</v>
+      </c>
+      <c r="N161">
+        <v>12.4</v>
+      </c>
+      <c r="O161">
+        <v>12.7</v>
+      </c>
+      <c r="P161">
+        <v>12.8</v>
+      </c>
+      <c r="Q161">
+        <v>18.95</v>
+      </c>
+      <c r="R161">
+        <v>66.05</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>66.05</v>
+      </c>
+      <c r="U161">
+        <v>15</v>
+      </c>
+      <c r="V161">
+        <v>-7.869347591854336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E162" t="s">
+        <v>85</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>11.9</v>
+      </c>
+      <c r="H162">
+        <v>12.5</v>
+      </c>
+      <c r="I162">
+        <v>24.4</v>
+      </c>
+      <c r="J162">
+        <v>12.5</v>
+      </c>
+      <c r="K162">
+        <v>12.3</v>
+      </c>
+      <c r="L162">
+        <v>12.5</v>
+      </c>
+      <c r="M162">
+        <v>18.65</v>
+      </c>
+      <c r="N162">
+        <v>12</v>
+      </c>
+      <c r="O162">
+        <v>12.1</v>
+      </c>
+      <c r="P162">
+        <v>11.9</v>
+      </c>
+      <c r="Q162">
+        <v>18</v>
+      </c>
+      <c r="R162">
+        <v>61.05</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>61.05</v>
+      </c>
+      <c r="U162">
+        <v>15</v>
+      </c>
+      <c r="V162">
+        <v>-12.86934759185434</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>26</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E163" t="s">
+        <v>86</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+      <c r="G163">
+        <v>17.3</v>
+      </c>
+      <c r="H163">
+        <v>17.4</v>
+      </c>
+      <c r="I163">
+        <v>34.7</v>
+      </c>
+      <c r="J163">
+        <v>16.8</v>
+      </c>
+      <c r="K163">
+        <v>17.1</v>
+      </c>
+      <c r="L163">
+        <v>17.4</v>
+      </c>
+      <c r="M163">
+        <v>25.65</v>
+      </c>
+      <c r="N163">
+        <v>17</v>
+      </c>
+      <c r="O163">
+        <v>17.5</v>
+      </c>
+      <c r="P163">
+        <v>16.9</v>
+      </c>
+      <c r="Q163">
+        <v>25.7</v>
+      </c>
+      <c r="R163">
+        <v>86.05</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>86.05</v>
+      </c>
+      <c r="U163">
+        <v>15</v>
+      </c>
+      <c r="V163">
+        <v>12.13065240814566</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>26</v>
+      </c>
+      <c r="C164" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E164" t="s">
+        <v>86</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>15.6</v>
+      </c>
+      <c r="H164">
+        <v>15.7</v>
+      </c>
+      <c r="I164">
+        <v>31.3</v>
+      </c>
+      <c r="J164">
+        <v>14.9</v>
+      </c>
+      <c r="K164">
+        <v>15.4</v>
+      </c>
+      <c r="L164">
+        <v>15</v>
+      </c>
+      <c r="M164">
+        <v>22.65</v>
+      </c>
+      <c r="N164">
+        <v>14.7</v>
+      </c>
+      <c r="O164">
+        <v>15.5</v>
+      </c>
+      <c r="P164">
+        <v>15.3</v>
+      </c>
+      <c r="Q164">
+        <v>22.75</v>
+      </c>
+      <c r="R164">
+        <v>76.7</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>76.7</v>
+      </c>
+      <c r="U164">
+        <v>15</v>
+      </c>
+      <c r="V164">
+        <v>2.78065240814567</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>26</v>
+      </c>
+      <c r="C165" t="s">
+        <v>57</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E165" t="s">
+        <v>86</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+      <c r="G165">
+        <v>14.8</v>
+      </c>
+      <c r="H165">
+        <v>14.3</v>
+      </c>
+      <c r="I165">
+        <v>29.1</v>
+      </c>
+      <c r="J165">
+        <v>14</v>
+      </c>
+      <c r="K165">
+        <v>14.5</v>
+      </c>
+      <c r="L165">
+        <v>14.6</v>
+      </c>
+      <c r="M165">
+        <v>21.55</v>
+      </c>
+      <c r="N165">
+        <v>14.9</v>
+      </c>
+      <c r="O165">
+        <v>14.8</v>
+      </c>
+      <c r="P165">
+        <v>14.5</v>
+      </c>
+      <c r="Q165">
+        <v>22.1</v>
+      </c>
+      <c r="R165">
+        <v>72.75</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>72.75</v>
+      </c>
+      <c r="U165">
+        <v>15</v>
+      </c>
+      <c r="V165">
+        <v>-1.169347591854333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>26</v>
+      </c>
+      <c r="C166" t="s">
+        <v>59</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E166" t="s">
+        <v>86</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>14.6</v>
+      </c>
+      <c r="H166">
+        <v>14.6</v>
+      </c>
+      <c r="I166">
+        <v>29.2</v>
+      </c>
+      <c r="J166">
+        <v>14.4</v>
+      </c>
+      <c r="K166">
+        <v>14.4</v>
+      </c>
+      <c r="L166">
+        <v>14.3</v>
+      </c>
+      <c r="M166">
+        <v>21.55</v>
+      </c>
+      <c r="N166">
+        <v>14.3</v>
+      </c>
+      <c r="O166">
+        <v>14.5</v>
+      </c>
+      <c r="P166">
+        <v>14.3</v>
+      </c>
+      <c r="Q166">
+        <v>21.55</v>
+      </c>
+      <c r="R166">
+        <v>72.3</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>72.3</v>
+      </c>
+      <c r="U166">
+        <v>15</v>
+      </c>
+      <c r="V166">
+        <v>-1.619347591854336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>26</v>
+      </c>
+      <c r="C167" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45484</v>
+      </c>
+      <c r="E167" t="s">
+        <v>86</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>14.2</v>
+      </c>
+      <c r="H167">
+        <v>13.8</v>
+      </c>
+      <c r="I167">
+        <v>28</v>
+      </c>
+      <c r="J167">
+        <v>13.7</v>
+      </c>
+      <c r="K167">
+        <v>13.6</v>
+      </c>
+      <c r="L167">
+        <v>13.8</v>
+      </c>
+      <c r="M167">
+        <v>20.55</v>
+      </c>
+      <c r="N167">
+        <v>13.3</v>
+      </c>
+      <c r="O167">
+        <v>14.1</v>
+      </c>
+      <c r="P167">
+        <v>13.2</v>
+      </c>
+      <c r="Q167">
+        <v>20.3</v>
+      </c>
+      <c r="R167">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="U167">
+        <v>15</v>
+      </c>
+      <c r="V167">
+        <v>-5.069347591854338</v>
       </c>
     </row>
   </sheetData>

--- a/exports/scores.xlsx
+++ b/exports/scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="98">
   <si>
     <t>Show Number</t>
   </si>
@@ -199,7 +199,13 @@
     <t>Atlanta CV</t>
   </si>
   <si>
-    <t>Battalion</t>
+    <t>The Battalion</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Jersey Surf</t>
   </si>
   <si>
     <t>Rockford, Michigan</t>
@@ -275,6 +281,33 @@
   </si>
   <si>
     <t>Muscle Shoals, Alabama</t>
+  </si>
+  <si>
+    <t>Cheyenne, Wyoming</t>
+  </si>
+  <si>
+    <t>Riverside, California</t>
+  </si>
+  <si>
+    <t>Clifton, New Jersey</t>
+  </si>
+  <si>
+    <t>Fort Collins, Colorado</t>
+  </si>
+  <si>
+    <t>DeKalb, Illinois</t>
+  </si>
+  <si>
+    <t>Little Rock, Arkansas</t>
+  </si>
+  <si>
+    <t>Vista, California</t>
+  </si>
+  <si>
+    <t>Ankeny, Iowa</t>
+  </si>
+  <si>
+    <t>Cerritos, California</t>
   </si>
 </sst>
 </file>
@@ -636,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V167"/>
+  <dimension ref="A1:V223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +754,7 @@
         <v>45469</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -772,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>8.840745609309337</v>
+        <v>8.1710876385267</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -789,7 +822,7 @@
         <v>45469</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -840,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>5.990745609309343</v>
+        <v>5.321087638526706</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -857,7 +890,7 @@
         <v>45469</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -908,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>4.090745609309337</v>
+        <v>3.4210876385267</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -925,7 +958,7 @@
         <v>45469</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -976,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>2.490745609309343</v>
+        <v>1.821087638526706</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -993,7 +1026,7 @@
         <v>45469</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1044,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1.240745609309343</v>
+        <v>0.5710876385267056</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1061,7 +1094,7 @@
         <v>45471</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1112,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>9.439399849154185</v>
+        <v>9.004826637874828</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1129,7 +1162,7 @@
         <v>45471</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1180,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <v>9.239399849154182</v>
+        <v>8.804826637874825</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1197,7 +1230,7 @@
         <v>45471</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1248,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="V9">
-        <v>6.689399849154185</v>
+        <v>6.254826637874828</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1265,7 +1298,7 @@
         <v>45471</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1316,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="V10">
-        <v>3.639399849154174</v>
+        <v>3.204826637874817</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1333,7 +1366,7 @@
         <v>45471</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1384,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="V11">
-        <v>1.739399849154182</v>
+        <v>1.304826637874825</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1401,7 +1434,7 @@
         <v>45471</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1452,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="V12">
-        <v>1.639399849154174</v>
+        <v>1.204826637874817</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1469,7 +1502,7 @@
         <v>45471</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1520,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="V13">
-        <v>11.13939984915417</v>
+        <v>10.70482663787482</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1537,7 +1570,7 @@
         <v>45471</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1588,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="V14">
-        <v>7.189399849154185</v>
+        <v>6.754826637874828</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1605,7 +1638,7 @@
         <v>45471</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1656,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="V15">
-        <v>6.189399849154185</v>
+        <v>5.754826637874828</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1673,7 +1706,7 @@
         <v>45471</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -1724,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>-1.160600150845823</v>
+        <v>-1.59517336212518</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1741,7 +1774,7 @@
         <v>45471</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1792,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="V17">
-        <v>-3.510600150845818</v>
+        <v>-3.945173362125175</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1809,7 +1842,7 @@
         <v>45471</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1860,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="V18">
-        <v>-6.460600150845821</v>
+        <v>-6.895173362125178</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1877,7 +1910,7 @@
         <v>45471</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1928,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="V19">
-        <v>-13.46060015084582</v>
+        <v>-13.89517336212518</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1945,7 +1978,7 @@
         <v>45471</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1996,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="V20">
-        <v>-15.61060015084582</v>
+        <v>-16.04517336212518</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -2013,7 +2046,7 @@
         <v>45471</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2064,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="V21">
-        <v>-18.76060015084582</v>
+        <v>-19.19517336212517</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2081,7 +2114,7 @@
         <v>45472</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2132,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="V22">
-        <v>1.8887269690766</v>
+        <v>1.571696137548869</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2149,7 +2182,7 @@
         <v>45472</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2200,7 +2233,7 @@
         <v>3</v>
       </c>
       <c r="V23">
-        <v>1.488726969076595</v>
+        <v>1.171696137548864</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2217,7 +2250,7 @@
         <v>45472</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -2268,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="V24">
-        <v>-0.2612730309234053</v>
+        <v>-0.5783038624511363</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2285,7 +2318,7 @@
         <v>45472</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2336,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="V25">
-        <v>-11.1612730309234</v>
+        <v>-11.47830386245113</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2353,7 +2386,7 @@
         <v>45472</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2404,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="V26">
-        <v>-0.1112730309233996</v>
+        <v>-0.4283038624511306</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2421,7 +2454,7 @@
         <v>45472</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2472,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="V27">
-        <v>-5.711273030923401</v>
+        <v>-6.028303862451132</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2489,7 +2522,7 @@
         <v>45472</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2540,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="V28">
-        <v>-12.7612730309234</v>
+        <v>-13.07830386245113</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2557,7 +2590,7 @@
         <v>45472</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -2608,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="V29">
-        <v>10.8387269690766</v>
+        <v>10.52169613754887</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2625,7 +2658,7 @@
         <v>45472</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2676,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="V30">
-        <v>8.338726969076603</v>
+        <v>8.021696137548872</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2693,7 +2726,7 @@
         <v>45472</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2744,7 +2777,7 @@
         <v>3</v>
       </c>
       <c r="V31">
-        <v>8.188726969076598</v>
+        <v>7.871696137548867</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2761,7 +2794,7 @@
         <v>45472</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -2812,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="V32">
-        <v>1.988726969076595</v>
+        <v>1.671696137548864</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2829,7 +2862,7 @@
         <v>45472</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2880,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="V33">
-        <v>0.1887269690765976</v>
+        <v>-0.1283038624511335</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2897,7 +2930,7 @@
         <v>45472</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2948,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="V34">
-        <v>-1.911273030923397</v>
+        <v>-2.228303862451128</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2965,7 +2998,7 @@
         <v>45472</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -3016,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="V35">
-        <v>10.98872696907659</v>
+        <v>10.67169613754886</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3033,7 +3066,7 @@
         <v>45472</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3084,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="V36">
-        <v>6.238726969076595</v>
+        <v>5.921696137548864</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3101,7 +3134,7 @@
         <v>45472</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -3152,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="V37">
-        <v>5.1387269690766</v>
+        <v>4.821696137548869</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3169,7 +3202,7 @@
         <v>45472</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -3220,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="V38">
-        <v>-3.411273030923397</v>
+        <v>-3.728303862451128</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3237,7 +3270,7 @@
         <v>45472</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -3288,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="V39">
-        <v>-2.411273030923397</v>
+        <v>-2.728303862451128</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3305,7 +3338,7 @@
         <v>45472</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -3356,7 +3389,7 @@
         <v>3</v>
       </c>
       <c r="V40">
-        <v>-6.661273030923397</v>
+        <v>-6.978303862451128</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3373,7 +3406,7 @@
         <v>45472</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -3424,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="V41">
-        <v>-16.1112730309234</v>
+        <v>-16.42830386245113</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3441,7 +3474,7 @@
         <v>45472</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3492,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="V42">
-        <v>-16.9612730309234</v>
+        <v>-17.27830386245113</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3509,7 +3542,7 @@
         <v>45472</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -3560,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="V43">
-        <v>-20.3112730309234</v>
+        <v>-20.62830386245113</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3577,7 +3610,7 @@
         <v>45473</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -3628,7 +3661,7 @@
         <v>4</v>
       </c>
       <c r="V44">
-        <v>10.33805408899902</v>
+        <v>10.13856563722292</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3645,7 +3678,7 @@
         <v>45473</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -3696,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="V45">
-        <v>9.838054088999016</v>
+        <v>9.638565637222925</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3713,7 +3746,7 @@
         <v>45473</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -3764,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="V46">
-        <v>7.038054088999019</v>
+        <v>6.838565637222928</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3781,7 +3814,7 @@
         <v>45473</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -3832,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="V47">
-        <v>5.088054088999016</v>
+        <v>4.888565637222925</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3849,7 +3882,7 @@
         <v>45473</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -3900,7 +3933,7 @@
         <v>4</v>
       </c>
       <c r="V48">
-        <v>3.938054088999024</v>
+        <v>3.738565637222933</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3917,7 +3950,7 @@
         <v>45473</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -3968,7 +4001,7 @@
         <v>4</v>
       </c>
       <c r="V49">
-        <v>3.638054088999027</v>
+        <v>3.438565637222936</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3985,7 +4018,7 @@
         <v>45473</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4036,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="V50">
-        <v>0.6380540889990272</v>
+        <v>0.4385656372229363</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4053,7 +4086,7 @@
         <v>45473</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4104,7 +4137,7 @@
         <v>4</v>
       </c>
       <c r="V51">
-        <v>-9.311945911000976</v>
+        <v>-9.511434362777067</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4121,7 +4154,7 @@
         <v>45473</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -4172,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="V52">
-        <v>10.53805408899902</v>
+        <v>10.33856563722293</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4189,7 +4222,7 @@
         <v>45473</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4240,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="V53">
-        <v>6.788054088999019</v>
+        <v>6.588565637222928</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4257,7 +4290,7 @@
         <v>45473</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -4308,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="V54">
-        <v>6.188054088999024</v>
+        <v>5.988565637222933</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4325,7 +4358,7 @@
         <v>45473</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -4376,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="V55">
-        <v>-2.761945911000979</v>
+        <v>-2.961434362777069</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4393,7 +4426,7 @@
         <v>45473</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -4444,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="V56">
-        <v>-2.911945911000977</v>
+        <v>-3.111434362777068</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4461,7 +4494,7 @@
         <v>45473</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -4512,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="V57">
-        <v>-6.511945911000979</v>
+        <v>-6.711434362777069</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4529,7 +4562,7 @@
         <v>45473</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -4580,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="V58">
-        <v>-15.51194591100098</v>
+        <v>-15.71143436277707</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4597,7 +4630,7 @@
         <v>45473</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -4648,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="V59">
-        <v>-15.71194591100098</v>
+        <v>-15.91143436277707</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4665,7 +4698,7 @@
         <v>45473</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -4716,7 +4749,7 @@
         <v>4</v>
       </c>
       <c r="V60">
-        <v>-20.06194591100098</v>
+        <v>-20.26143436277707</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4733,7 +4766,7 @@
         <v>45475</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -4784,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="V61">
-        <v>10.68670832884386</v>
+        <v>10.72230463657105</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4801,7 +4834,7 @@
         <v>45475</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -4852,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="V62">
-        <v>10.38670832884387</v>
+        <v>10.42230463657106</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4869,7 +4902,7 @@
         <v>45475</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -4920,7 +4953,7 @@
         <v>6</v>
       </c>
       <c r="V63">
-        <v>9.886708328843866</v>
+        <v>9.922304636571056</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4937,7 +4970,7 @@
         <v>45475</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4988,7 +5021,7 @@
         <v>6</v>
       </c>
       <c r="V64">
-        <v>7.536708328843858</v>
+        <v>7.572304636571047</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -5005,7 +5038,7 @@
         <v>45475</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -5056,7 +5089,7 @@
         <v>6</v>
       </c>
       <c r="V65">
-        <v>6.886708328843866</v>
+        <v>6.922304636571056</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -5073,7 +5106,7 @@
         <v>45476</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -5124,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="V66">
-        <v>6.336035448766282</v>
+        <v>6.489174136245097</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5141,7 +5174,7 @@
         <v>45476</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -5192,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="V67">
-        <v>4.636035448766279</v>
+        <v>4.789174136245094</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5209,7 +5242,7 @@
         <v>45476</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -5260,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="V68">
-        <v>4.43603544876629</v>
+        <v>4.589174136245106</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5277,7 +5310,7 @@
         <v>45476</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5328,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="V69">
-        <v>1.486035448766287</v>
+        <v>1.639174136245103</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5345,7 +5378,7 @@
         <v>45476</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5396,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="V70">
-        <v>-11.96396455123372</v>
+        <v>-11.8108258637549</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5413,7 +5446,7 @@
         <v>45478</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -5464,7 +5497,7 @@
         <v>9</v>
       </c>
       <c r="V71">
-        <v>10.58468968861114</v>
+        <v>10.97291313559322</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5481,7 +5514,7 @@
         <v>45478</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -5532,7 +5565,7 @@
         <v>9</v>
       </c>
       <c r="V72">
-        <v>6.584689688611135</v>
+        <v>6.972913135593217</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5549,7 +5582,7 @@
         <v>45478</v>
       </c>
       <c r="E73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -5600,7 +5633,7 @@
         <v>9</v>
       </c>
       <c r="V73">
-        <v>5.884689688611147</v>
+        <v>6.272913135593228</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5617,7 +5650,7 @@
         <v>45478</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -5668,7 +5701,7 @@
         <v>9</v>
       </c>
       <c r="V74">
-        <v>-1.365310311388853</v>
+        <v>-0.9770868644067718</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5685,7 +5718,7 @@
         <v>45478</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -5736,7 +5769,7 @@
         <v>9</v>
       </c>
       <c r="V75">
-        <v>-4.515310311388859</v>
+        <v>-4.127086864406778</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5753,7 +5786,7 @@
         <v>45478</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -5804,7 +5837,7 @@
         <v>9</v>
       </c>
       <c r="V76">
-        <v>1.434689688611144</v>
+        <v>1.822913135593225</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5821,7 +5854,7 @@
         <v>45478</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -5872,7 +5905,7 @@
         <v>9</v>
       </c>
       <c r="V77">
-        <v>-0.4153103113888648</v>
+        <v>-0.02708686440678321</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5889,7 +5922,7 @@
         <v>45478</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -5940,7 +5973,7 @@
         <v>9</v>
       </c>
       <c r="V78">
-        <v>-8.36531031138886</v>
+        <v>-7.977086864406779</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5957,7 +5990,7 @@
         <v>45478</v>
       </c>
       <c r="E79" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F79">
         <v>4</v>
@@ -6008,7 +6041,7 @@
         <v>9</v>
       </c>
       <c r="V79">
-        <v>7.484689688611141</v>
+        <v>7.872913135593222</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -6025,7 +6058,7 @@
         <v>45478</v>
       </c>
       <c r="E80" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -6076,7 +6109,7 @@
         <v>9</v>
       </c>
       <c r="V80">
-        <v>5.884689688611147</v>
+        <v>6.272913135593228</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -6093,7 +6126,7 @@
         <v>45478</v>
       </c>
       <c r="E81" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -6144,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="V81">
-        <v>4.084689688611135</v>
+        <v>4.472913135593217</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6161,7 +6194,7 @@
         <v>45478</v>
       </c>
       <c r="E82" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -6212,7 +6245,7 @@
         <v>9</v>
       </c>
       <c r="V82">
-        <v>1.334689688611135</v>
+        <v>1.722913135593217</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6229,7 +6262,7 @@
         <v>45478</v>
       </c>
       <c r="E83" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -6280,7 +6313,7 @@
         <v>9</v>
       </c>
       <c r="V83">
-        <v>-8.415310311388858</v>
+        <v>-8.027086864406776</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6297,7 +6330,7 @@
         <v>45478</v>
       </c>
       <c r="E84" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -6348,7 +6381,7 @@
         <v>9</v>
       </c>
       <c r="V84">
-        <v>-10.71531031138886</v>
+        <v>-10.32708686440678</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6365,7 +6398,7 @@
         <v>45479</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -6416,7 +6449,7 @@
         <v>10</v>
       </c>
       <c r="V85">
-        <v>10.63401680853356</v>
+        <v>11.13978263526728</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6433,7 +6466,7 @@
         <v>45479</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F86">
         <v>4</v>
@@ -6484,7 +6517,7 @@
         <v>10</v>
       </c>
       <c r="V86">
-        <v>5.934016808533556</v>
+        <v>6.439782635267278</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6501,7 +6534,7 @@
         <v>45479</v>
       </c>
       <c r="E87" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -6552,7 +6585,7 @@
         <v>10</v>
       </c>
       <c r="V87">
-        <v>5.434016808533556</v>
+        <v>5.939782635267278</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6569,7 +6602,7 @@
         <v>45479</v>
       </c>
       <c r="E88" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -6620,7 +6653,7 @@
         <v>10</v>
       </c>
       <c r="V88">
-        <v>0.03401680853356481</v>
+        <v>0.5397826352672865</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6637,7 +6670,7 @@
         <v>45479</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -6688,7 +6721,7 @@
         <v>10</v>
       </c>
       <c r="V89">
-        <v>-3.415983191466438</v>
+        <v>-2.910217364732716</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6705,7 +6738,7 @@
         <v>45479</v>
       </c>
       <c r="E90" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F90">
         <v>5</v>
@@ -6756,7 +6789,7 @@
         <v>10</v>
       </c>
       <c r="V90">
-        <v>-4.665983191466438</v>
+        <v>-4.160217364732716</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6773,7 +6806,7 @@
         <v>45479</v>
       </c>
       <c r="E91" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F91">
         <v>4</v>
@@ -6824,7 +6857,7 @@
         <v>10</v>
       </c>
       <c r="V91">
-        <v>-7.415983191466438</v>
+        <v>-6.910217364732716</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6841,7 +6874,7 @@
         <v>45479</v>
       </c>
       <c r="E92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6892,7 +6925,7 @@
         <v>10</v>
       </c>
       <c r="V92">
-        <v>-12.26598319146644</v>
+        <v>-11.76021736473272</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6909,7 +6942,7 @@
         <v>45479</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -6960,7 +6993,7 @@
         <v>10</v>
       </c>
       <c r="V93">
-        <v>-13.51598319146644</v>
+        <v>-13.01021736473272</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6977,7 +7010,7 @@
         <v>45479</v>
       </c>
       <c r="E94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -7028,7 +7061,7 @@
         <v>10</v>
       </c>
       <c r="V94">
-        <v>-14.71598319146644</v>
+        <v>-14.21021736473271</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -7045,7 +7078,7 @@
         <v>45479</v>
       </c>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -7096,7 +7129,7 @@
         <v>10</v>
       </c>
       <c r="V95">
-        <v>-18.36598319146644</v>
+        <v>-17.86021736473272</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -7113,7 +7146,7 @@
         <v>45479</v>
       </c>
       <c r="E96" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -7164,7 +7197,7 @@
         <v>10</v>
       </c>
       <c r="V96">
-        <v>2.234016808533568</v>
+        <v>2.739782635267289</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7181,7 +7214,7 @@
         <v>45479</v>
       </c>
       <c r="E97" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -7232,7 +7265,7 @@
         <v>10</v>
       </c>
       <c r="V97">
-        <v>1.584016808533562</v>
+        <v>2.089782635267284</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7249,7 +7282,7 @@
         <v>45479</v>
       </c>
       <c r="E98" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F98">
         <v>3</v>
@@ -7300,7 +7333,7 @@
         <v>10</v>
       </c>
       <c r="V98">
-        <v>-9.015983191466439</v>
+        <v>-8.510217364732718</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7317,7 +7350,7 @@
         <v>45479</v>
       </c>
       <c r="E99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -7368,7 +7401,7 @@
         <v>10</v>
       </c>
       <c r="V99">
-        <v>-5.715983191466435</v>
+        <v>-5.210217364732713</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7385,7 +7418,7 @@
         <v>45479</v>
       </c>
       <c r="E100" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F100">
         <v>4</v>
@@ -7436,7 +7469,7 @@
         <v>10</v>
       </c>
       <c r="V100">
-        <v>11.23401680853357</v>
+        <v>11.73978263526729</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7453,7 +7486,7 @@
         <v>45479</v>
       </c>
       <c r="E101" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -7504,7 +7537,7 @@
         <v>10</v>
       </c>
       <c r="V101">
-        <v>8.484016808533568</v>
+        <v>8.989782635267289</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7521,7 +7554,7 @@
         <v>45479</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -7572,7 +7605,7 @@
         <v>10</v>
       </c>
       <c r="V102">
-        <v>6.484016808533568</v>
+        <v>6.989782635267289</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7589,7 +7622,7 @@
         <v>45479</v>
       </c>
       <c r="E103" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -7640,7 +7673,7 @@
         <v>10</v>
       </c>
       <c r="V103">
-        <v>5.184016808533556</v>
+        <v>5.689782635267278</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7657,7 +7690,7 @@
         <v>45479</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F104">
         <v>5</v>
@@ -7708,7 +7741,7 @@
         <v>10</v>
       </c>
       <c r="V104">
-        <v>1.834016808533562</v>
+        <v>2.339782635267284</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7725,7 +7758,7 @@
         <v>45479</v>
       </c>
       <c r="E105" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7776,7 +7809,7 @@
         <v>10</v>
       </c>
       <c r="V105">
-        <v>-9.515983191466439</v>
+        <v>-9.010217364732718</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7793,7 +7826,7 @@
         <v>45479</v>
       </c>
       <c r="E106" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -7844,7 +7877,7 @@
         <v>10</v>
       </c>
       <c r="V106">
-        <v>2.034016808533565</v>
+        <v>2.539782635267287</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7861,7 +7894,7 @@
         <v>45480</v>
       </c>
       <c r="E107" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F107">
         <v>4</v>
@@ -7912,7 +7945,7 @@
         <v>11</v>
       </c>
       <c r="V107">
-        <v>12.08334392845599</v>
+        <v>12.70665213494134</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7929,7 +7962,7 @@
         <v>45480</v>
       </c>
       <c r="E108" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -7980,7 +8013,7 @@
         <v>11</v>
       </c>
       <c r="V108">
-        <v>9.333343928455989</v>
+        <v>9.956652134941336</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7997,7 +8030,7 @@
         <v>45480</v>
       </c>
       <c r="E109" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -8048,7 +8081,7 @@
         <v>11</v>
       </c>
       <c r="V109">
-        <v>5.333343928455989</v>
+        <v>5.956652134941336</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -8065,7 +8098,7 @@
         <v>45480</v>
       </c>
       <c r="E110" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -8116,7 +8149,7 @@
         <v>11</v>
       </c>
       <c r="V110">
-        <v>4.23334392845598</v>
+        <v>4.856652134941328</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -8133,7 +8166,7 @@
         <v>45480</v>
       </c>
       <c r="E111" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -8184,7 +8217,7 @@
         <v>11</v>
       </c>
       <c r="V111">
-        <v>1.833343928455989</v>
+        <v>2.456652134941336</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8201,7 +8234,7 @@
         <v>45480</v>
       </c>
       <c r="E112" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -8252,7 +8285,7 @@
         <v>11</v>
       </c>
       <c r="V112">
-        <v>-9.216656071544016</v>
+        <v>-8.593347865058668</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8269,7 +8302,7 @@
         <v>45480</v>
       </c>
       <c r="E113" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F113">
         <v>4</v>
@@ -8320,7 +8353,7 @@
         <v>11</v>
       </c>
       <c r="V113">
-        <v>10.73334392845598</v>
+        <v>11.35665213494133</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8337,7 +8370,7 @@
         <v>45480</v>
       </c>
       <c r="E114" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F114">
         <v>5</v>
@@ -8388,7 +8421,7 @@
         <v>11</v>
       </c>
       <c r="V114">
-        <v>7.083343928455989</v>
+        <v>7.706652134941336</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8405,7 +8438,7 @@
         <v>45480</v>
       </c>
       <c r="E115" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -8456,7 +8489,7 @@
         <v>11</v>
       </c>
       <c r="V115">
-        <v>6.183343928455983</v>
+        <v>6.806652134941331</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8473,7 +8506,7 @@
         <v>45480</v>
       </c>
       <c r="E116" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -8524,7 +8557,7 @@
         <v>11</v>
       </c>
       <c r="V116">
-        <v>-0.2666560715440198</v>
+        <v>0.3566521349413279</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8541,7 +8574,7 @@
         <v>45480</v>
       </c>
       <c r="E117" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -8592,7 +8625,7 @@
         <v>11</v>
       </c>
       <c r="V117">
-        <v>-2.966656071544023</v>
+        <v>-2.343347865058675</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8609,7 +8642,7 @@
         <v>45480</v>
       </c>
       <c r="E118" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F118">
         <v>5</v>
@@ -8660,7 +8693,7 @@
         <v>11</v>
       </c>
       <c r="V118">
-        <v>-3.216656071544023</v>
+        <v>-2.593347865058675</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8677,7 +8710,7 @@
         <v>45480</v>
       </c>
       <c r="E119" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F119">
         <v>4</v>
@@ -8728,7 +8761,7 @@
         <v>11</v>
       </c>
       <c r="V119">
-        <v>-6.26665607154402</v>
+        <v>-5.643347865058672</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8745,7 +8778,7 @@
         <v>45480</v>
       </c>
       <c r="E120" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -8796,7 +8829,7 @@
         <v>11</v>
       </c>
       <c r="V120">
-        <v>-12.21665607154402</v>
+        <v>-11.59334786505867</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8813,7 +8846,7 @@
         <v>45480</v>
       </c>
       <c r="E121" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -8864,7 +8897,7 @@
         <v>11</v>
       </c>
       <c r="V121">
-        <v>-13.06665607154402</v>
+        <v>-12.44334786505867</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8881,7 +8914,7 @@
         <v>45480</v>
       </c>
       <c r="E122" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -8932,7 +8965,7 @@
         <v>11</v>
       </c>
       <c r="V122">
-        <v>-19.06665607154402</v>
+        <v>-18.44334786505867</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8949,7 +8982,7 @@
         <v>45481</v>
       </c>
       <c r="E123" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -9000,7 +9033,7 @@
         <v>12</v>
       </c>
       <c r="V123">
-        <v>3.782671048378404</v>
+        <v>4.523521634615392</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -9017,7 +9050,7 @@
         <v>45481</v>
       </c>
       <c r="E124" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -9068,7 +9101,7 @@
         <v>12</v>
       </c>
       <c r="V124">
-        <v>2.43267104837841</v>
+        <v>3.173521634615398</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -9085,7 +9118,7 @@
         <v>45481</v>
       </c>
       <c r="E125" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -9136,7 +9169,7 @@
         <v>12</v>
       </c>
       <c r="V125">
-        <v>-8.817328951621597</v>
+        <v>-8.07647836538461</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -9153,7 +9186,7 @@
         <v>45481</v>
       </c>
       <c r="E126" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -9204,7 +9237,7 @@
         <v>12</v>
       </c>
       <c r="V126">
-        <v>-7.367328951621602</v>
+        <v>-6.626478365384614</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9221,7 +9254,7 @@
         <v>45481</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F127">
         <v>4</v>
@@ -9272,7 +9305,7 @@
         <v>12</v>
       </c>
       <c r="V127">
-        <v>11.48267104837841</v>
+        <v>12.22352163461539</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9289,7 +9322,7 @@
         <v>45481</v>
       </c>
       <c r="E128" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F128">
         <v>3</v>
@@ -9340,7 +9373,7 @@
         <v>12</v>
       </c>
       <c r="V128">
-        <v>2.68267104837841</v>
+        <v>3.423521634615398</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9357,7 +9390,7 @@
         <v>45481</v>
       </c>
       <c r="E129" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -9408,7 +9441,7 @@
         <v>12</v>
       </c>
       <c r="V129">
-        <v>-0.7673289516215931</v>
+        <v>-0.02647836538460524</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9425,7 +9458,7 @@
         <v>45481</v>
       </c>
       <c r="E130" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -9476,7 +9509,7 @@
         <v>12</v>
       </c>
       <c r="V130">
-        <v>-2.017328951621593</v>
+        <v>-1.276478365384605</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9493,7 +9526,7 @@
         <v>45481</v>
       </c>
       <c r="E131" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -9544,7 +9577,7 @@
         <v>12</v>
       </c>
       <c r="V131">
-        <v>-5.217328951621596</v>
+        <v>-4.476478365384608</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9561,7 +9594,7 @@
         <v>45482</v>
       </c>
       <c r="E132" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F132">
         <v>3</v>
@@ -9612,7 +9645,7 @@
         <v>13</v>
       </c>
       <c r="V132">
-        <v>7.381998168300825</v>
+        <v>8.240391134289453</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9629,7 +9662,7 @@
         <v>45482</v>
       </c>
       <c r="E133" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -9680,7 +9713,7 @@
         <v>13</v>
       </c>
       <c r="V133">
-        <v>2.581998168300828</v>
+        <v>3.440391134289456</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9697,7 +9730,7 @@
         <v>45482</v>
       </c>
       <c r="E134" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -9748,7 +9781,7 @@
         <v>13</v>
       </c>
       <c r="V134">
-        <v>0.8819981683008251</v>
+        <v>1.740391134289453</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9765,7 +9798,7 @@
         <v>45482</v>
       </c>
       <c r="E135" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F135">
         <v>4</v>
@@ -9816,7 +9849,7 @@
         <v>13</v>
       </c>
       <c r="V135">
-        <v>-7.818001831699178</v>
+        <v>-6.95960886571055</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9833,7 +9866,7 @@
         <v>45482</v>
       </c>
       <c r="E136" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F136">
         <v>3</v>
@@ -9884,7 +9917,7 @@
         <v>13</v>
       </c>
       <c r="V136">
-        <v>8.781998168300831</v>
+        <v>9.640391134289459</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9901,7 +9934,7 @@
         <v>45482</v>
       </c>
       <c r="E137" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -9952,7 +9985,7 @@
         <v>13</v>
       </c>
       <c r="V137">
-        <v>4.331998168300828</v>
+        <v>5.190391134289456</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9969,7 +10002,7 @@
         <v>45482</v>
       </c>
       <c r="E138" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -10020,7 +10053,7 @@
         <v>13</v>
       </c>
       <c r="V138">
-        <v>2.331998168300828</v>
+        <v>3.190391134289456</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -10037,7 +10070,7 @@
         <v>45482</v>
       </c>
       <c r="E139" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -10088,7 +10121,7 @@
         <v>13</v>
       </c>
       <c r="V139">
-        <v>-5.968001831699169</v>
+        <v>-5.109608865710541</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -10105,7 +10138,7 @@
         <v>45482</v>
       </c>
       <c r="E140" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -10156,7 +10189,7 @@
         <v>13</v>
       </c>
       <c r="V140">
-        <v>-11.51800183169917</v>
+        <v>-10.65960886571055</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10173,7 +10206,7 @@
         <v>45482</v>
       </c>
       <c r="E141" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -10224,7 +10257,7 @@
         <v>13</v>
       </c>
       <c r="V141">
-        <v>-3.568001831699178</v>
+        <v>-2.70960886571055</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10241,7 +10274,7 @@
         <v>45482</v>
       </c>
       <c r="E142" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F142">
         <v>3</v>
@@ -10292,7 +10325,7 @@
         <v>13</v>
       </c>
       <c r="V142">
-        <v>12.28199816830083</v>
+        <v>13.14039113428946</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10309,7 +10342,7 @@
         <v>45482</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -10360,7 +10393,7 @@
         <v>13</v>
       </c>
       <c r="V143">
-        <v>3.381998168300825</v>
+        <v>4.240391134289453</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10377,7 +10410,7 @@
         <v>45482</v>
       </c>
       <c r="E144" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -10428,7 +10461,7 @@
         <v>13</v>
       </c>
       <c r="V144">
-        <v>-0.418001831699172</v>
+        <v>0.440391134289456</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10445,7 +10478,7 @@
         <v>45482</v>
       </c>
       <c r="E145" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -10496,7 +10529,7 @@
         <v>13</v>
       </c>
       <c r="V145">
-        <v>-1.368001831699175</v>
+        <v>-0.5096088657105469</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10513,7 +10546,7 @@
         <v>45482</v>
       </c>
       <c r="E146" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -10564,7 +10597,7 @@
         <v>13</v>
       </c>
       <c r="V146">
-        <v>-3.968001831699169</v>
+        <v>-3.109608865710541</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10581,7 +10614,7 @@
         <v>45482</v>
       </c>
       <c r="E147" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -10632,7 +10665,7 @@
         <v>13</v>
       </c>
       <c r="V147">
-        <v>4.031998168300831</v>
+        <v>4.890391134289459</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10649,7 +10682,7 @@
         <v>45483</v>
       </c>
       <c r="E148" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F148">
         <v>7</v>
@@ -10700,7 +10733,7 @@
         <v>14</v>
       </c>
       <c r="V148">
-        <v>10.73132528822325</v>
+        <v>11.70726063396351</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10717,7 +10750,7 @@
         <v>45483</v>
       </c>
       <c r="E149" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F149">
         <v>6</v>
@@ -10768,7 +10801,7 @@
         <v>14</v>
       </c>
       <c r="V149">
-        <v>6.631325288223252</v>
+        <v>7.60726063396352</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10785,7 +10818,7 @@
         <v>45483</v>
       </c>
       <c r="E150" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -10836,7 +10869,7 @@
         <v>14</v>
       </c>
       <c r="V150">
-        <v>6.381325288223252</v>
+        <v>7.35726063396352</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10853,7 +10886,7 @@
         <v>45483</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F151">
         <v>5</v>
@@ -10904,7 +10937,7 @@
         <v>14</v>
       </c>
       <c r="V151">
-        <v>3.381325288223252</v>
+        <v>4.35726063396352</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10921,7 +10954,7 @@
         <v>45483</v>
       </c>
       <c r="E152" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F152">
         <v>8</v>
@@ -10972,7 +11005,7 @@
         <v>14</v>
       </c>
       <c r="V152">
-        <v>1.431325288223249</v>
+        <v>2.407260633963517</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10989,7 +11022,7 @@
         <v>45483</v>
       </c>
       <c r="E153" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -11040,7 +11073,7 @@
         <v>14</v>
       </c>
       <c r="V153">
-        <v>-1.618674711776748</v>
+        <v>-0.64273936603648</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -11057,7 +11090,7 @@
         <v>45483</v>
       </c>
       <c r="E154" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -11108,7 +11141,7 @@
         <v>14</v>
       </c>
       <c r="V154">
-        <v>-2.568674711776751</v>
+        <v>-1.592739366036483</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -11125,7 +11158,7 @@
         <v>45483</v>
       </c>
       <c r="E155" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -11176,7 +11209,7 @@
         <v>14</v>
       </c>
       <c r="V155">
-        <v>-9.368674711776755</v>
+        <v>-8.392739366036487</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11193,7 +11226,7 @@
         <v>45483</v>
       </c>
       <c r="E156" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -11244,7 +11277,7 @@
         <v>14</v>
       </c>
       <c r="V156">
-        <v>-12.51867471177675</v>
+        <v>-11.54273936603649</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11261,7 +11294,7 @@
         <v>45484</v>
       </c>
       <c r="E157" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F157">
         <v>3</v>
@@ -11312,7 +11345,7 @@
         <v>15</v>
       </c>
       <c r="V157">
-        <v>8.980652408145673</v>
+        <v>10.07413013363757</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11329,7 +11362,7 @@
         <v>45484</v>
       </c>
       <c r="E158" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -11380,7 +11413,7 @@
         <v>15</v>
       </c>
       <c r="V158">
-        <v>4.180652408145662</v>
+        <v>5.274130133637556</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11397,7 +11430,7 @@
         <v>45484</v>
       </c>
       <c r="E159" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F159">
         <v>4</v>
@@ -11448,7 +11481,7 @@
         <v>15</v>
       </c>
       <c r="V159">
-        <v>4.180652408145662</v>
+        <v>5.274130133637556</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11465,7 +11498,7 @@
         <v>45484</v>
       </c>
       <c r="E160" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -11516,7 +11549,7 @@
         <v>15</v>
       </c>
       <c r="V160">
-        <v>4.130652408145664</v>
+        <v>5.224130133637559</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11533,7 +11566,7 @@
         <v>45484</v>
       </c>
       <c r="E161" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -11584,7 +11617,7 @@
         <v>15</v>
       </c>
       <c r="V161">
-        <v>-7.869347591854336</v>
+        <v>-6.775869866362441</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11601,7 +11634,7 @@
         <v>45484</v>
       </c>
       <c r="E162" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -11652,7 +11685,7 @@
         <v>15</v>
       </c>
       <c r="V162">
-        <v>-12.86934759185434</v>
+        <v>-11.77586986636244</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11669,7 +11702,7 @@
         <v>45484</v>
       </c>
       <c r="E163" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F163">
         <v>4</v>
@@ -11720,7 +11753,7 @@
         <v>15</v>
       </c>
       <c r="V163">
-        <v>12.13065240814566</v>
+        <v>13.22413013363756</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11731,13 +11764,13 @@
         <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D164" s="2">
         <v>45484</v>
       </c>
       <c r="E164" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -11788,7 +11821,7 @@
         <v>15</v>
       </c>
       <c r="V164">
-        <v>2.78065240814567</v>
+        <v>3.874130133637564</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11799,13 +11832,13 @@
         <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D165" s="2">
         <v>45484</v>
       </c>
       <c r="E165" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F165">
         <v>3</v>
@@ -11856,7 +11889,7 @@
         <v>15</v>
       </c>
       <c r="V165">
-        <v>-1.169347591854333</v>
+        <v>-0.07586986636243864</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11873,7 +11906,7 @@
         <v>45484</v>
       </c>
       <c r="E166" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -11924,7 +11957,7 @@
         <v>15</v>
       </c>
       <c r="V166">
-        <v>-1.619347591854336</v>
+        <v>-0.5258698663624415</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11941,7 +11974,7 @@
         <v>45484</v>
       </c>
       <c r="E167" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -11992,7 +12025,3815 @@
         <v>15</v>
       </c>
       <c r="V167">
-        <v>-5.069347591854338</v>
+        <v>-3.975869866362444</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>27</v>
+      </c>
+      <c r="C168" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E168" t="s">
+        <v>89</v>
+      </c>
+      <c r="F168">
+        <v>5</v>
+      </c>
+      <c r="G168">
+        <v>15.5</v>
+      </c>
+      <c r="H168">
+        <v>15.6</v>
+      </c>
+      <c r="I168">
+        <v>31.1</v>
+      </c>
+      <c r="J168">
+        <v>15.5</v>
+      </c>
+      <c r="K168">
+        <v>15.6</v>
+      </c>
+      <c r="L168">
+        <v>14.8</v>
+      </c>
+      <c r="M168">
+        <v>22.95</v>
+      </c>
+      <c r="N168">
+        <v>16.4</v>
+      </c>
+      <c r="O168">
+        <v>15.9</v>
+      </c>
+      <c r="P168">
+        <v>16.4</v>
+      </c>
+      <c r="Q168">
+        <v>24.35</v>
+      </c>
+      <c r="R168">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="U168">
+        <v>16</v>
+      </c>
+      <c r="V168">
+        <v>5.040999633311628</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>27</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E169" t="s">
+        <v>89</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <v>14.4</v>
+      </c>
+      <c r="H169">
+        <v>14.9</v>
+      </c>
+      <c r="I169">
+        <v>29.3</v>
+      </c>
+      <c r="J169">
+        <v>14.6</v>
+      </c>
+      <c r="K169">
+        <v>15</v>
+      </c>
+      <c r="L169">
+        <v>15.2</v>
+      </c>
+      <c r="M169">
+        <v>22.4</v>
+      </c>
+      <c r="N169">
+        <v>15.5</v>
+      </c>
+      <c r="O169">
+        <v>14.8</v>
+      </c>
+      <c r="P169">
+        <v>15.2</v>
+      </c>
+      <c r="Q169">
+        <v>22.75</v>
+      </c>
+      <c r="R169">
+        <v>74.45</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>74.45</v>
+      </c>
+      <c r="U169">
+        <v>16</v>
+      </c>
+      <c r="V169">
+        <v>1.090999633311625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>27</v>
+      </c>
+      <c r="C170" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E170" t="s">
+        <v>89</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170">
+        <v>14.1</v>
+      </c>
+      <c r="H170">
+        <v>14.5</v>
+      </c>
+      <c r="I170">
+        <v>28.6</v>
+      </c>
+      <c r="J170">
+        <v>14.4</v>
+      </c>
+      <c r="K170">
+        <v>14.6</v>
+      </c>
+      <c r="L170">
+        <v>13.5</v>
+      </c>
+      <c r="M170">
+        <v>21.25</v>
+      </c>
+      <c r="N170">
+        <v>13.3</v>
+      </c>
+      <c r="O170">
+        <v>15.1</v>
+      </c>
+      <c r="P170">
+        <v>15</v>
+      </c>
+      <c r="Q170">
+        <v>21.7</v>
+      </c>
+      <c r="R170">
+        <v>71.55</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>71.55</v>
+      </c>
+      <c r="U170">
+        <v>16</v>
+      </c>
+      <c r="V170">
+        <v>-1.80900036668838</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>27</v>
+      </c>
+      <c r="C171" t="s">
+        <v>62</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E171" t="s">
+        <v>89</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>13.4</v>
+      </c>
+      <c r="H171">
+        <v>12.9</v>
+      </c>
+      <c r="I171">
+        <v>26.3</v>
+      </c>
+      <c r="J171">
+        <v>13.7</v>
+      </c>
+      <c r="K171">
+        <v>14.3</v>
+      </c>
+      <c r="L171">
+        <v>14.3</v>
+      </c>
+      <c r="M171">
+        <v>21.15</v>
+      </c>
+      <c r="N171">
+        <v>13.4</v>
+      </c>
+      <c r="O171">
+        <v>13.5</v>
+      </c>
+      <c r="P171">
+        <v>14.1</v>
+      </c>
+      <c r="Q171">
+        <v>20.5</v>
+      </c>
+      <c r="R171">
+        <v>67.95</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>67.95</v>
+      </c>
+      <c r="U171">
+        <v>16</v>
+      </c>
+      <c r="V171">
+        <v>-5.409000366688375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>27</v>
+      </c>
+      <c r="C172" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E172" t="s">
+        <v>89</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>12.8</v>
+      </c>
+      <c r="H172">
+        <v>12.7</v>
+      </c>
+      <c r="I172">
+        <v>25.5</v>
+      </c>
+      <c r="J172">
+        <v>12.7</v>
+      </c>
+      <c r="K172">
+        <v>12.6</v>
+      </c>
+      <c r="L172">
+        <v>12.6</v>
+      </c>
+      <c r="M172">
+        <v>18.95</v>
+      </c>
+      <c r="N172">
+        <v>12.6</v>
+      </c>
+      <c r="O172">
+        <v>13.2</v>
+      </c>
+      <c r="P172">
+        <v>13.7</v>
+      </c>
+      <c r="Q172">
+        <v>19.75</v>
+      </c>
+      <c r="R172">
+        <v>64.2</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>64.2</v>
+      </c>
+      <c r="U172">
+        <v>16</v>
+      </c>
+      <c r="V172">
+        <v>-9.159000366688375</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>27</v>
+      </c>
+      <c r="C173" t="s">
+        <v>61</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E173" t="s">
+        <v>89</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>12.4</v>
+      </c>
+      <c r="H173">
+        <v>12.1</v>
+      </c>
+      <c r="I173">
+        <v>24.5</v>
+      </c>
+      <c r="J173">
+        <v>12.5</v>
+      </c>
+      <c r="K173">
+        <v>13</v>
+      </c>
+      <c r="L173">
+        <v>12.3</v>
+      </c>
+      <c r="M173">
+        <v>18.9</v>
+      </c>
+      <c r="N173">
+        <v>12.9</v>
+      </c>
+      <c r="O173">
+        <v>12.8</v>
+      </c>
+      <c r="P173">
+        <v>12.9</v>
+      </c>
+      <c r="Q173">
+        <v>19.3</v>
+      </c>
+      <c r="R173">
+        <v>62.7</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>62.7</v>
+      </c>
+      <c r="U173">
+        <v>16</v>
+      </c>
+      <c r="V173">
+        <v>-10.65900036668837</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E174" t="s">
+        <v>90</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174">
+        <v>14.4</v>
+      </c>
+      <c r="H174">
+        <v>14.4</v>
+      </c>
+      <c r="I174">
+        <v>28.8</v>
+      </c>
+      <c r="J174">
+        <v>14.7</v>
+      </c>
+      <c r="K174">
+        <v>14</v>
+      </c>
+      <c r="L174">
+        <v>14.4</v>
+      </c>
+      <c r="M174">
+        <v>21.55</v>
+      </c>
+      <c r="N174">
+        <v>14.4</v>
+      </c>
+      <c r="O174">
+        <v>14</v>
+      </c>
+      <c r="P174">
+        <v>14.3</v>
+      </c>
+      <c r="Q174">
+        <v>21.35</v>
+      </c>
+      <c r="R174">
+        <v>71.7</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>71.7</v>
+      </c>
+      <c r="U174">
+        <v>16</v>
+      </c>
+      <c r="V174">
+        <v>-1.659000366688375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E175" t="s">
+        <v>90</v>
+      </c>
+      <c r="F175">
+        <v>5</v>
+      </c>
+      <c r="G175">
+        <v>14</v>
+      </c>
+      <c r="H175">
+        <v>13.4</v>
+      </c>
+      <c r="I175">
+        <v>27.4</v>
+      </c>
+      <c r="J175">
+        <v>14.1</v>
+      </c>
+      <c r="K175">
+        <v>13.4</v>
+      </c>
+      <c r="L175">
+        <v>13.6</v>
+      </c>
+      <c r="M175">
+        <v>20.55</v>
+      </c>
+      <c r="N175">
+        <v>13.1</v>
+      </c>
+      <c r="O175">
+        <v>13.5</v>
+      </c>
+      <c r="P175">
+        <v>14</v>
+      </c>
+      <c r="Q175">
+        <v>20.3</v>
+      </c>
+      <c r="R175">
+        <v>68.25</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>68.25</v>
+      </c>
+      <c r="U175">
+        <v>16</v>
+      </c>
+      <c r="V175">
+        <v>-5.109000366688377</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>28</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E176" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <v>13.3</v>
+      </c>
+      <c r="H176">
+        <v>12.3</v>
+      </c>
+      <c r="I176">
+        <v>25.6</v>
+      </c>
+      <c r="J176">
+        <v>12.5</v>
+      </c>
+      <c r="K176">
+        <v>12.1</v>
+      </c>
+      <c r="L176">
+        <v>12.6</v>
+      </c>
+      <c r="M176">
+        <v>18.6</v>
+      </c>
+      <c r="N176">
+        <v>12.3</v>
+      </c>
+      <c r="O176">
+        <v>12.1</v>
+      </c>
+      <c r="P176">
+        <v>12.3</v>
+      </c>
+      <c r="Q176">
+        <v>18.35</v>
+      </c>
+      <c r="R176">
+        <v>62.55</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>62.55</v>
+      </c>
+      <c r="U176">
+        <v>16</v>
+      </c>
+      <c r="V176">
+        <v>-10.80900036668838</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E177" t="s">
+        <v>90</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>12.3</v>
+      </c>
+      <c r="H177">
+        <v>11.6</v>
+      </c>
+      <c r="I177">
+        <v>23.9</v>
+      </c>
+      <c r="J177">
+        <v>12.3</v>
+      </c>
+      <c r="K177">
+        <v>12.4</v>
+      </c>
+      <c r="L177">
+        <v>11.6</v>
+      </c>
+      <c r="M177">
+        <v>18.15</v>
+      </c>
+      <c r="N177">
+        <v>11.7</v>
+      </c>
+      <c r="O177">
+        <v>12.3</v>
+      </c>
+      <c r="P177">
+        <v>12</v>
+      </c>
+      <c r="Q177">
+        <v>18</v>
+      </c>
+      <c r="R177">
+        <v>60.05</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>60.05</v>
+      </c>
+      <c r="U177">
+        <v>16</v>
+      </c>
+      <c r="V177">
+        <v>-13.30900036668838</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45485</v>
+      </c>
+      <c r="E178" t="s">
+        <v>90</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="G178">
+        <v>12</v>
+      </c>
+      <c r="H178">
+        <v>12.4</v>
+      </c>
+      <c r="I178">
+        <v>24.4</v>
+      </c>
+      <c r="J178">
+        <v>11.7</v>
+      </c>
+      <c r="K178">
+        <v>11.6</v>
+      </c>
+      <c r="L178">
+        <v>11.2</v>
+      </c>
+      <c r="M178">
+        <v>17.25</v>
+      </c>
+      <c r="N178">
+        <v>11.9</v>
+      </c>
+      <c r="O178">
+        <v>11.9</v>
+      </c>
+      <c r="P178">
+        <v>12.7</v>
+      </c>
+      <c r="Q178">
+        <v>18.25</v>
+      </c>
+      <c r="R178">
+        <v>59.9</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>59.9</v>
+      </c>
+      <c r="U178">
+        <v>16</v>
+      </c>
+      <c r="V178">
+        <v>-13.45900036668838</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>29</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E179" t="s">
+        <v>91</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>13.4</v>
+      </c>
+      <c r="H179">
+        <v>12.8</v>
+      </c>
+      <c r="I179">
+        <v>26.2</v>
+      </c>
+      <c r="J179">
+        <v>12.9</v>
+      </c>
+      <c r="K179">
+        <v>12.4</v>
+      </c>
+      <c r="L179">
+        <v>12.8</v>
+      </c>
+      <c r="M179">
+        <v>19.05</v>
+      </c>
+      <c r="N179">
+        <v>12.3</v>
+      </c>
+      <c r="O179">
+        <v>12.3</v>
+      </c>
+      <c r="P179">
+        <v>12.5</v>
+      </c>
+      <c r="Q179">
+        <v>18.55</v>
+      </c>
+      <c r="R179">
+        <v>63.85</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>63.85</v>
+      </c>
+      <c r="U179">
+        <v>17</v>
+      </c>
+      <c r="V179">
+        <v>-10.04213086701431</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>29</v>
+      </c>
+      <c r="C180" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E180" t="s">
+        <v>91</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>17.5</v>
+      </c>
+      <c r="H180">
+        <v>17.3</v>
+      </c>
+      <c r="I180">
+        <v>34.8</v>
+      </c>
+      <c r="J180">
+        <v>16.4</v>
+      </c>
+      <c r="K180">
+        <v>17.5</v>
+      </c>
+      <c r="L180">
+        <v>17.2</v>
+      </c>
+      <c r="M180">
+        <v>25.55</v>
+      </c>
+      <c r="N180">
+        <v>16.7</v>
+      </c>
+      <c r="O180">
+        <v>17.4</v>
+      </c>
+      <c r="P180">
+        <v>16.9</v>
+      </c>
+      <c r="Q180">
+        <v>25.5</v>
+      </c>
+      <c r="R180">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="U180">
+        <v>17</v>
+      </c>
+      <c r="V180">
+        <v>11.95786913298568</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>29</v>
+      </c>
+      <c r="C181" t="s">
+        <v>42</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E181" t="s">
+        <v>91</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>17.1</v>
+      </c>
+      <c r="H181">
+        <v>17</v>
+      </c>
+      <c r="I181">
+        <v>34.1</v>
+      </c>
+      <c r="J181">
+        <v>16</v>
+      </c>
+      <c r="K181">
+        <v>17.1</v>
+      </c>
+      <c r="L181">
+        <v>17.1</v>
+      </c>
+      <c r="M181">
+        <v>25.1</v>
+      </c>
+      <c r="N181">
+        <v>15.7</v>
+      </c>
+      <c r="O181">
+        <v>16.8</v>
+      </c>
+      <c r="P181">
+        <v>17.1</v>
+      </c>
+      <c r="Q181">
+        <v>24.8</v>
+      </c>
+      <c r="R181">
+        <v>84</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>84</v>
+      </c>
+      <c r="U181">
+        <v>17</v>
+      </c>
+      <c r="V181">
+        <v>10.10786913298568</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>29</v>
+      </c>
+      <c r="C182" t="s">
+        <v>43</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E182" t="s">
+        <v>91</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182">
+        <v>16.4</v>
+      </c>
+      <c r="H182">
+        <v>16.6</v>
+      </c>
+      <c r="I182">
+        <v>33</v>
+      </c>
+      <c r="J182">
+        <v>15.7</v>
+      </c>
+      <c r="K182">
+        <v>16.6</v>
+      </c>
+      <c r="L182">
+        <v>16</v>
+      </c>
+      <c r="M182">
+        <v>24.15</v>
+      </c>
+      <c r="N182">
+        <v>16</v>
+      </c>
+      <c r="O182">
+        <v>16.9</v>
+      </c>
+      <c r="P182">
+        <v>16.7</v>
+      </c>
+      <c r="Q182">
+        <v>24.8</v>
+      </c>
+      <c r="R182">
+        <v>81.95</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>81.95</v>
+      </c>
+      <c r="U182">
+        <v>17</v>
+      </c>
+      <c r="V182">
+        <v>8.057869132985687</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>29</v>
+      </c>
+      <c r="C183" t="s">
+        <v>44</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E183" t="s">
+        <v>91</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>16</v>
+      </c>
+      <c r="H183">
+        <v>15.5</v>
+      </c>
+      <c r="I183">
+        <v>31.5</v>
+      </c>
+      <c r="J183">
+        <v>15.3</v>
+      </c>
+      <c r="K183">
+        <v>15.7</v>
+      </c>
+      <c r="L183">
+        <v>16.1</v>
+      </c>
+      <c r="M183">
+        <v>23.55</v>
+      </c>
+      <c r="N183">
+        <v>14.1</v>
+      </c>
+      <c r="O183">
+        <v>15.7</v>
+      </c>
+      <c r="P183">
+        <v>15.6</v>
+      </c>
+      <c r="Q183">
+        <v>22.7</v>
+      </c>
+      <c r="R183">
+        <v>77.75</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>77.75</v>
+      </c>
+      <c r="U183">
+        <v>17</v>
+      </c>
+      <c r="V183">
+        <v>3.857869132985684</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>29</v>
+      </c>
+      <c r="C184" t="s">
+        <v>45</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E184" t="s">
+        <v>91</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>15.3</v>
+      </c>
+      <c r="H184">
+        <v>15.2</v>
+      </c>
+      <c r="I184">
+        <v>30.5</v>
+      </c>
+      <c r="J184">
+        <v>12.8</v>
+      </c>
+      <c r="K184">
+        <v>15</v>
+      </c>
+      <c r="L184">
+        <v>15.3</v>
+      </c>
+      <c r="M184">
+        <v>21.55</v>
+      </c>
+      <c r="N184">
+        <v>13.9</v>
+      </c>
+      <c r="O184">
+        <v>15</v>
+      </c>
+      <c r="P184">
+        <v>14.3</v>
+      </c>
+      <c r="Q184">
+        <v>21.6</v>
+      </c>
+      <c r="R184">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="U184">
+        <v>17</v>
+      </c>
+      <c r="V184">
+        <v>-0.2421308670143105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>46</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E185" t="s">
+        <v>91</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>14.8</v>
+      </c>
+      <c r="H185">
+        <v>14.7</v>
+      </c>
+      <c r="I185">
+        <v>29.5</v>
+      </c>
+      <c r="J185">
+        <v>13.2</v>
+      </c>
+      <c r="K185">
+        <v>14.4</v>
+      </c>
+      <c r="L185">
+        <v>14.2</v>
+      </c>
+      <c r="M185">
+        <v>20.9</v>
+      </c>
+      <c r="N185">
+        <v>13.1</v>
+      </c>
+      <c r="O185">
+        <v>13.2</v>
+      </c>
+      <c r="P185">
+        <v>13</v>
+      </c>
+      <c r="Q185">
+        <v>19.65</v>
+      </c>
+      <c r="R185">
+        <v>70.05</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>70.05</v>
+      </c>
+      <c r="U185">
+        <v>17</v>
+      </c>
+      <c r="V185">
+        <v>-3.842130867014319</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E186" t="s">
+        <v>92</v>
+      </c>
+      <c r="F186">
+        <v>8</v>
+      </c>
+      <c r="G186">
+        <v>17</v>
+      </c>
+      <c r="H186">
+        <v>17.3</v>
+      </c>
+      <c r="I186">
+        <v>34.3</v>
+      </c>
+      <c r="J186">
+        <v>17.3</v>
+      </c>
+      <c r="K186">
+        <v>16.8</v>
+      </c>
+      <c r="L186">
+        <v>17.3</v>
+      </c>
+      <c r="M186">
+        <v>25.7</v>
+      </c>
+      <c r="N186">
+        <v>17.1</v>
+      </c>
+      <c r="O186">
+        <v>17.1</v>
+      </c>
+      <c r="P186">
+        <v>16.9</v>
+      </c>
+      <c r="Q186">
+        <v>25.55</v>
+      </c>
+      <c r="R186">
+        <v>85.55</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>85.55</v>
+      </c>
+      <c r="U186">
+        <v>17</v>
+      </c>
+      <c r="V186">
+        <v>11.65786913298568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>30</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E187" t="s">
+        <v>92</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>16.5</v>
+      </c>
+      <c r="H187">
+        <v>16.3</v>
+      </c>
+      <c r="I187">
+        <v>32.8</v>
+      </c>
+      <c r="J187">
+        <v>16.5</v>
+      </c>
+      <c r="K187">
+        <v>16.1</v>
+      </c>
+      <c r="L187">
+        <v>16.2</v>
+      </c>
+      <c r="M187">
+        <v>24.4</v>
+      </c>
+      <c r="N187">
+        <v>16.5</v>
+      </c>
+      <c r="O187">
+        <v>16</v>
+      </c>
+      <c r="P187">
+        <v>17.1</v>
+      </c>
+      <c r="Q187">
+        <v>24.8</v>
+      </c>
+      <c r="R187">
+        <v>82</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>82</v>
+      </c>
+      <c r="U187">
+        <v>17</v>
+      </c>
+      <c r="V187">
+        <v>8.107869132985684</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>30</v>
+      </c>
+      <c r="C188" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E188" t="s">
+        <v>92</v>
+      </c>
+      <c r="F188">
+        <v>7</v>
+      </c>
+      <c r="G188">
+        <v>16.2</v>
+      </c>
+      <c r="H188">
+        <v>16.6</v>
+      </c>
+      <c r="I188">
+        <v>32.8</v>
+      </c>
+      <c r="J188">
+        <v>16.4</v>
+      </c>
+      <c r="K188">
+        <v>16.2</v>
+      </c>
+      <c r="L188">
+        <v>16.4</v>
+      </c>
+      <c r="M188">
+        <v>24.5</v>
+      </c>
+      <c r="N188">
+        <v>16.1</v>
+      </c>
+      <c r="O188">
+        <v>16.6</v>
+      </c>
+      <c r="P188">
+        <v>16.1</v>
+      </c>
+      <c r="Q188">
+        <v>24.4</v>
+      </c>
+      <c r="R188">
+        <v>81.7</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>81.7</v>
+      </c>
+      <c r="U188">
+        <v>17</v>
+      </c>
+      <c r="V188">
+        <v>7.807869132985687</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>30</v>
+      </c>
+      <c r="C189" t="s">
+        <v>50</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E189" t="s">
+        <v>92</v>
+      </c>
+      <c r="F189">
+        <v>6</v>
+      </c>
+      <c r="G189">
+        <v>15.5</v>
+      </c>
+      <c r="H189">
+        <v>15.4</v>
+      </c>
+      <c r="I189">
+        <v>30.9</v>
+      </c>
+      <c r="J189">
+        <v>15.4</v>
+      </c>
+      <c r="K189">
+        <v>15.3</v>
+      </c>
+      <c r="L189">
+        <v>14.9</v>
+      </c>
+      <c r="M189">
+        <v>22.8</v>
+      </c>
+      <c r="N189">
+        <v>16.2</v>
+      </c>
+      <c r="O189">
+        <v>15.9</v>
+      </c>
+      <c r="P189">
+        <v>16</v>
+      </c>
+      <c r="Q189">
+        <v>24.05</v>
+      </c>
+      <c r="R189">
+        <v>77.75</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>77.75</v>
+      </c>
+      <c r="U189">
+        <v>17</v>
+      </c>
+      <c r="V189">
+        <v>3.857869132985684</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>30</v>
+      </c>
+      <c r="C190" t="s">
+        <v>51</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E190" t="s">
+        <v>92</v>
+      </c>
+      <c r="F190">
+        <v>9</v>
+      </c>
+      <c r="G190">
+        <v>14.5</v>
+      </c>
+      <c r="H190">
+        <v>15.8</v>
+      </c>
+      <c r="I190">
+        <v>30.3</v>
+      </c>
+      <c r="J190">
+        <v>15.2</v>
+      </c>
+      <c r="K190">
+        <v>15.2</v>
+      </c>
+      <c r="L190">
+        <v>15.1</v>
+      </c>
+      <c r="M190">
+        <v>22.75</v>
+      </c>
+      <c r="N190">
+        <v>14.4</v>
+      </c>
+      <c r="O190">
+        <v>15.3</v>
+      </c>
+      <c r="P190">
+        <v>14.5</v>
+      </c>
+      <c r="Q190">
+        <v>22.1</v>
+      </c>
+      <c r="R190">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="U190">
+        <v>17</v>
+      </c>
+      <c r="V190">
+        <v>1.257869132985689</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>30</v>
+      </c>
+      <c r="C191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E191" t="s">
+        <v>92</v>
+      </c>
+      <c r="F191">
+        <v>5</v>
+      </c>
+      <c r="G191">
+        <v>15</v>
+      </c>
+      <c r="H191">
+        <v>14.7</v>
+      </c>
+      <c r="I191">
+        <v>29.7</v>
+      </c>
+      <c r="J191">
+        <v>14.4</v>
+      </c>
+      <c r="K191">
+        <v>14.7</v>
+      </c>
+      <c r="L191">
+        <v>14.8</v>
+      </c>
+      <c r="M191">
+        <v>21.95</v>
+      </c>
+      <c r="N191">
+        <v>15</v>
+      </c>
+      <c r="O191">
+        <v>15</v>
+      </c>
+      <c r="P191">
+        <v>14.8</v>
+      </c>
+      <c r="Q191">
+        <v>22.4</v>
+      </c>
+      <c r="R191">
+        <v>74.05</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <v>74.05</v>
+      </c>
+      <c r="U191">
+        <v>17</v>
+      </c>
+      <c r="V191">
+        <v>0.1578691329856809</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>30</v>
+      </c>
+      <c r="C192" t="s">
+        <v>49</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E192" t="s">
+        <v>92</v>
+      </c>
+      <c r="F192">
+        <v>4</v>
+      </c>
+      <c r="G192">
+        <v>14.6</v>
+      </c>
+      <c r="H192">
+        <v>14.9</v>
+      </c>
+      <c r="I192">
+        <v>29.5</v>
+      </c>
+      <c r="J192">
+        <v>14.7</v>
+      </c>
+      <c r="K192">
+        <v>14.3</v>
+      </c>
+      <c r="L192">
+        <v>14.1</v>
+      </c>
+      <c r="M192">
+        <v>21.55</v>
+      </c>
+      <c r="N192">
+        <v>13.8</v>
+      </c>
+      <c r="O192">
+        <v>14.8</v>
+      </c>
+      <c r="P192">
+        <v>14</v>
+      </c>
+      <c r="Q192">
+        <v>21.3</v>
+      </c>
+      <c r="R192">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="U192">
+        <v>17</v>
+      </c>
+      <c r="V192">
+        <v>-1.542130867014322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>30</v>
+      </c>
+      <c r="C193" t="s">
+        <v>62</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E193" t="s">
+        <v>92</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="G193">
+        <v>13.5</v>
+      </c>
+      <c r="H193">
+        <v>13.2</v>
+      </c>
+      <c r="I193">
+        <v>26.7</v>
+      </c>
+      <c r="J193">
+        <v>13.5</v>
+      </c>
+      <c r="K193">
+        <v>14.4</v>
+      </c>
+      <c r="L193">
+        <v>13.8</v>
+      </c>
+      <c r="M193">
+        <v>20.85</v>
+      </c>
+      <c r="N193">
+        <v>12.5</v>
+      </c>
+      <c r="O193">
+        <v>14.4</v>
+      </c>
+      <c r="P193">
+        <v>13.9</v>
+      </c>
+      <c r="Q193">
+        <v>20.4</v>
+      </c>
+      <c r="R193">
+        <v>67.95</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>67.95</v>
+      </c>
+      <c r="U193">
+        <v>17</v>
+      </c>
+      <c r="V193">
+        <v>-5.942130867014313</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>30</v>
+      </c>
+      <c r="C194" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E194" t="s">
+        <v>92</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194">
+        <v>12.7</v>
+      </c>
+      <c r="H194">
+        <v>12.9</v>
+      </c>
+      <c r="I194">
+        <v>25.6</v>
+      </c>
+      <c r="J194">
+        <v>12.9</v>
+      </c>
+      <c r="K194">
+        <v>12.6</v>
+      </c>
+      <c r="L194">
+        <v>12.8</v>
+      </c>
+      <c r="M194">
+        <v>19.15</v>
+      </c>
+      <c r="N194">
+        <v>12.7</v>
+      </c>
+      <c r="O194">
+        <v>13.8</v>
+      </c>
+      <c r="P194">
+        <v>13</v>
+      </c>
+      <c r="Q194">
+        <v>19.75</v>
+      </c>
+      <c r="R194">
+        <v>64.5</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>64.5</v>
+      </c>
+      <c r="U194">
+        <v>17</v>
+      </c>
+      <c r="V194">
+        <v>-9.392130867014316</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>30</v>
+      </c>
+      <c r="C195" t="s">
+        <v>61</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E195" t="s">
+        <v>92</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>12.6</v>
+      </c>
+      <c r="H195">
+        <v>12.3</v>
+      </c>
+      <c r="I195">
+        <v>24.9</v>
+      </c>
+      <c r="J195">
+        <v>12.2</v>
+      </c>
+      <c r="K195">
+        <v>12.8</v>
+      </c>
+      <c r="L195">
+        <v>12.5</v>
+      </c>
+      <c r="M195">
+        <v>18.75</v>
+      </c>
+      <c r="N195">
+        <v>13.2</v>
+      </c>
+      <c r="O195">
+        <v>12.2</v>
+      </c>
+      <c r="P195">
+        <v>11.4</v>
+      </c>
+      <c r="Q195">
+        <v>18.4</v>
+      </c>
+      <c r="R195">
+        <v>62.05</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>62.05</v>
+      </c>
+      <c r="U195">
+        <v>17</v>
+      </c>
+      <c r="V195">
+        <v>-11.84213086701432</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>31</v>
+      </c>
+      <c r="C196" t="s">
+        <v>47</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E196" t="s">
+        <v>93</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196">
+        <v>17.3</v>
+      </c>
+      <c r="H196">
+        <v>17.2</v>
+      </c>
+      <c r="I196">
+        <v>34.5</v>
+      </c>
+      <c r="J196">
+        <v>17.4</v>
+      </c>
+      <c r="K196">
+        <v>17.2</v>
+      </c>
+      <c r="L196">
+        <v>17.7</v>
+      </c>
+      <c r="M196">
+        <v>26.15</v>
+      </c>
+      <c r="N196">
+        <v>17.8</v>
+      </c>
+      <c r="O196">
+        <v>17.5</v>
+      </c>
+      <c r="P196">
+        <v>17.5</v>
+      </c>
+      <c r="Q196">
+        <v>26.4</v>
+      </c>
+      <c r="R196">
+        <v>87.05</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>87.05</v>
+      </c>
+      <c r="U196">
+        <v>17</v>
+      </c>
+      <c r="V196">
+        <v>13.15786913298568</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E197" t="s">
+        <v>93</v>
+      </c>
+      <c r="F197">
+        <v>6</v>
+      </c>
+      <c r="G197">
+        <v>16.8</v>
+      </c>
+      <c r="H197">
+        <v>17</v>
+      </c>
+      <c r="I197">
+        <v>33.8</v>
+      </c>
+      <c r="J197">
+        <v>16.9</v>
+      </c>
+      <c r="K197">
+        <v>16.9</v>
+      </c>
+      <c r="L197">
+        <v>16.8</v>
+      </c>
+      <c r="M197">
+        <v>25.3</v>
+      </c>
+      <c r="N197">
+        <v>17.3</v>
+      </c>
+      <c r="O197">
+        <v>16.8</v>
+      </c>
+      <c r="P197">
+        <v>17.2</v>
+      </c>
+      <c r="Q197">
+        <v>25.65</v>
+      </c>
+      <c r="R197">
+        <v>84.75</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <v>84.75</v>
+      </c>
+      <c r="U197">
+        <v>17</v>
+      </c>
+      <c r="V197">
+        <v>10.85786913298568</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>31</v>
+      </c>
+      <c r="C198" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E198" t="s">
+        <v>93</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="G198">
+        <v>16</v>
+      </c>
+      <c r="H198">
+        <v>15.7</v>
+      </c>
+      <c r="I198">
+        <v>31.7</v>
+      </c>
+      <c r="J198">
+        <v>15.9</v>
+      </c>
+      <c r="K198">
+        <v>15.8</v>
+      </c>
+      <c r="L198">
+        <v>16.2</v>
+      </c>
+      <c r="M198">
+        <v>23.95</v>
+      </c>
+      <c r="N198">
+        <v>16</v>
+      </c>
+      <c r="O198">
+        <v>15.9</v>
+      </c>
+      <c r="P198">
+        <v>16</v>
+      </c>
+      <c r="Q198">
+        <v>23.95</v>
+      </c>
+      <c r="R198">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="U198">
+        <v>17</v>
+      </c>
+      <c r="V198">
+        <v>5.707869132985678</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>31</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E199" t="s">
+        <v>93</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199">
+        <v>15.2</v>
+      </c>
+      <c r="H199">
+        <v>15.3</v>
+      </c>
+      <c r="I199">
+        <v>30.5</v>
+      </c>
+      <c r="J199">
+        <v>16.1</v>
+      </c>
+      <c r="K199">
+        <v>15.5</v>
+      </c>
+      <c r="L199">
+        <v>16.3</v>
+      </c>
+      <c r="M199">
+        <v>23.95</v>
+      </c>
+      <c r="N199">
+        <v>16.5</v>
+      </c>
+      <c r="O199">
+        <v>15.7</v>
+      </c>
+      <c r="P199">
+        <v>16.7</v>
+      </c>
+      <c r="Q199">
+        <v>24.45</v>
+      </c>
+      <c r="R199">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="U199">
+        <v>17</v>
+      </c>
+      <c r="V199">
+        <v>5.007869132985689</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>31</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E200" t="s">
+        <v>93</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200">
+        <v>15.1</v>
+      </c>
+      <c r="H200">
+        <v>15.5</v>
+      </c>
+      <c r="I200">
+        <v>30.6</v>
+      </c>
+      <c r="J200">
+        <v>16</v>
+      </c>
+      <c r="K200">
+        <v>15.9</v>
+      </c>
+      <c r="L200">
+        <v>16.1</v>
+      </c>
+      <c r="M200">
+        <v>24</v>
+      </c>
+      <c r="N200">
+        <v>16.2</v>
+      </c>
+      <c r="O200">
+        <v>16</v>
+      </c>
+      <c r="P200">
+        <v>16.3</v>
+      </c>
+      <c r="Q200">
+        <v>24.25</v>
+      </c>
+      <c r="R200">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="U200">
+        <v>17</v>
+      </c>
+      <c r="V200">
+        <v>4.957869132985678</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>31</v>
+      </c>
+      <c r="C201" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E201" t="s">
+        <v>93</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>14.6</v>
+      </c>
+      <c r="H201">
+        <v>15</v>
+      </c>
+      <c r="I201">
+        <v>29.6</v>
+      </c>
+      <c r="J201">
+        <v>15.3</v>
+      </c>
+      <c r="K201">
+        <v>14.8</v>
+      </c>
+      <c r="L201">
+        <v>15.5</v>
+      </c>
+      <c r="M201">
+        <v>22.8</v>
+      </c>
+      <c r="N201">
+        <v>15.3</v>
+      </c>
+      <c r="O201">
+        <v>15.4</v>
+      </c>
+      <c r="P201">
+        <v>14</v>
+      </c>
+      <c r="Q201">
+        <v>22.35</v>
+      </c>
+      <c r="R201">
+        <v>74.75</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>74.75</v>
+      </c>
+      <c r="U201">
+        <v>17</v>
+      </c>
+      <c r="V201">
+        <v>0.8578691329856838</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>31</v>
+      </c>
+      <c r="C202" t="s">
+        <v>39</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E202" t="s">
+        <v>93</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>14</v>
+      </c>
+      <c r="H202">
+        <v>13.9</v>
+      </c>
+      <c r="I202">
+        <v>27.9</v>
+      </c>
+      <c r="J202">
+        <v>13.8</v>
+      </c>
+      <c r="K202">
+        <v>13.9</v>
+      </c>
+      <c r="L202">
+        <v>14.2</v>
+      </c>
+      <c r="M202">
+        <v>20.95</v>
+      </c>
+      <c r="N202">
+        <v>13.8</v>
+      </c>
+      <c r="O202">
+        <v>13.8</v>
+      </c>
+      <c r="P202">
+        <v>13</v>
+      </c>
+      <c r="Q202">
+        <v>20.3</v>
+      </c>
+      <c r="R202">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="U202">
+        <v>17</v>
+      </c>
+      <c r="V202">
+        <v>-4.742130867014311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>32</v>
+      </c>
+      <c r="C203" t="s">
+        <v>21</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E203" t="s">
+        <v>94</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203">
+        <v>17.3</v>
+      </c>
+      <c r="H203">
+        <v>17</v>
+      </c>
+      <c r="I203">
+        <v>34.3</v>
+      </c>
+      <c r="J203">
+        <v>17.4</v>
+      </c>
+      <c r="K203">
+        <v>17.1</v>
+      </c>
+      <c r="L203">
+        <v>17.5</v>
+      </c>
+      <c r="M203">
+        <v>26</v>
+      </c>
+      <c r="N203">
+        <v>17.2</v>
+      </c>
+      <c r="O203">
+        <v>16.8</v>
+      </c>
+      <c r="P203">
+        <v>17.7</v>
+      </c>
+      <c r="Q203">
+        <v>25.85</v>
+      </c>
+      <c r="R203">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="U203">
+        <v>17</v>
+      </c>
+      <c r="V203">
+        <v>12.25786913298569</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>32</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E204" t="s">
+        <v>94</v>
+      </c>
+      <c r="F204">
+        <v>5</v>
+      </c>
+      <c r="G204">
+        <v>17.2</v>
+      </c>
+      <c r="H204">
+        <v>16.6</v>
+      </c>
+      <c r="I204">
+        <v>33.8</v>
+      </c>
+      <c r="J204">
+        <v>17.1</v>
+      </c>
+      <c r="K204">
+        <v>17.2</v>
+      </c>
+      <c r="L204">
+        <v>17</v>
+      </c>
+      <c r="M204">
+        <v>25.65</v>
+      </c>
+      <c r="N204">
+        <v>17.5</v>
+      </c>
+      <c r="O204">
+        <v>17.1</v>
+      </c>
+      <c r="P204">
+        <v>17</v>
+      </c>
+      <c r="Q204">
+        <v>25.8</v>
+      </c>
+      <c r="R204">
+        <v>85.25</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>85.25</v>
+      </c>
+      <c r="U204">
+        <v>17</v>
+      </c>
+      <c r="V204">
+        <v>11.35786913298568</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>32</v>
+      </c>
+      <c r="C205" t="s">
+        <v>57</v>
+      </c>
+      <c r="D205" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E205" t="s">
+        <v>94</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205">
+        <v>15.9</v>
+      </c>
+      <c r="H205">
+        <v>15.2</v>
+      </c>
+      <c r="I205">
+        <v>31.1</v>
+      </c>
+      <c r="J205">
+        <v>15.3</v>
+      </c>
+      <c r="K205">
+        <v>15.5</v>
+      </c>
+      <c r="L205">
+        <v>15.1</v>
+      </c>
+      <c r="M205">
+        <v>22.95</v>
+      </c>
+      <c r="N205">
+        <v>14.6</v>
+      </c>
+      <c r="O205">
+        <v>15.2</v>
+      </c>
+      <c r="P205">
+        <v>16.5</v>
+      </c>
+      <c r="Q205">
+        <v>23.15</v>
+      </c>
+      <c r="R205">
+        <v>77.2</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>77.2</v>
+      </c>
+      <c r="U205">
+        <v>17</v>
+      </c>
+      <c r="V205">
+        <v>3.307869132985687</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>32</v>
+      </c>
+      <c r="C206" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E206" t="s">
+        <v>94</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+      <c r="G206">
+        <v>15.1</v>
+      </c>
+      <c r="H206">
+        <v>15</v>
+      </c>
+      <c r="I206">
+        <v>30.1</v>
+      </c>
+      <c r="J206">
+        <v>15</v>
+      </c>
+      <c r="K206">
+        <v>14.9</v>
+      </c>
+      <c r="L206">
+        <v>14.6</v>
+      </c>
+      <c r="M206">
+        <v>22.25</v>
+      </c>
+      <c r="N206">
+        <v>15</v>
+      </c>
+      <c r="O206">
+        <v>14.8</v>
+      </c>
+      <c r="P206">
+        <v>16</v>
+      </c>
+      <c r="Q206">
+        <v>22.9</v>
+      </c>
+      <c r="R206">
+        <v>75.25</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>75.25</v>
+      </c>
+      <c r="U206">
+        <v>17</v>
+      </c>
+      <c r="V206">
+        <v>1.357869132985684</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>32</v>
+      </c>
+      <c r="C207" t="s">
+        <v>59</v>
+      </c>
+      <c r="D207" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E207" t="s">
+        <v>94</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>14.9</v>
+      </c>
+      <c r="H207">
+        <v>14.3</v>
+      </c>
+      <c r="I207">
+        <v>29.2</v>
+      </c>
+      <c r="J207">
+        <v>14.5</v>
+      </c>
+      <c r="K207">
+        <v>14.5</v>
+      </c>
+      <c r="L207">
+        <v>14.3</v>
+      </c>
+      <c r="M207">
+        <v>21.65</v>
+      </c>
+      <c r="N207">
+        <v>14.5</v>
+      </c>
+      <c r="O207">
+        <v>14.5</v>
+      </c>
+      <c r="P207">
+        <v>15.5</v>
+      </c>
+      <c r="Q207">
+        <v>22.25</v>
+      </c>
+      <c r="R207">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="U207">
+        <v>17</v>
+      </c>
+      <c r="V207">
+        <v>-0.7921308670143219</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>33</v>
+      </c>
+      <c r="C208" t="s">
+        <v>31</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E208" t="s">
+        <v>95</v>
+      </c>
+      <c r="F208">
+        <v>5</v>
+      </c>
+      <c r="G208">
+        <v>14.8</v>
+      </c>
+      <c r="H208">
+        <v>14.6</v>
+      </c>
+      <c r="I208">
+        <v>29.4</v>
+      </c>
+      <c r="J208">
+        <v>14.9</v>
+      </c>
+      <c r="K208">
+        <v>14.5</v>
+      </c>
+      <c r="L208">
+        <v>14.1</v>
+      </c>
+      <c r="M208">
+        <v>21.75</v>
+      </c>
+      <c r="N208">
+        <v>14.2</v>
+      </c>
+      <c r="O208">
+        <v>14.4</v>
+      </c>
+      <c r="P208">
+        <v>15</v>
+      </c>
+      <c r="Q208">
+        <v>21.8</v>
+      </c>
+      <c r="R208">
+        <v>72.95</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>72.95</v>
+      </c>
+      <c r="U208">
+        <v>17</v>
+      </c>
+      <c r="V208">
+        <v>-0.9421308670143134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>33</v>
+      </c>
+      <c r="C209" t="s">
+        <v>32</v>
+      </c>
+      <c r="D209" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E209" t="s">
+        <v>95</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209">
+        <v>14.3</v>
+      </c>
+      <c r="H209">
+        <v>13.9</v>
+      </c>
+      <c r="I209">
+        <v>28.2</v>
+      </c>
+      <c r="J209">
+        <v>14.8</v>
+      </c>
+      <c r="K209">
+        <v>14</v>
+      </c>
+      <c r="L209">
+        <v>13.8</v>
+      </c>
+      <c r="M209">
+        <v>21.3</v>
+      </c>
+      <c r="N209">
+        <v>13.6</v>
+      </c>
+      <c r="O209">
+        <v>14</v>
+      </c>
+      <c r="P209">
+        <v>14.2</v>
+      </c>
+      <c r="Q209">
+        <v>20.9</v>
+      </c>
+      <c r="R209">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="U209">
+        <v>17</v>
+      </c>
+      <c r="V209">
+        <v>-3.492130867014311</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>33</v>
+      </c>
+      <c r="C210" t="s">
+        <v>33</v>
+      </c>
+      <c r="D210" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E210" t="s">
+        <v>95</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+      <c r="G210">
+        <v>13.6</v>
+      </c>
+      <c r="H210">
+        <v>13.3</v>
+      </c>
+      <c r="I210">
+        <v>26.9</v>
+      </c>
+      <c r="J210">
+        <v>12.8</v>
+      </c>
+      <c r="K210">
+        <v>13</v>
+      </c>
+      <c r="L210">
+        <v>13.6</v>
+      </c>
+      <c r="M210">
+        <v>19.7</v>
+      </c>
+      <c r="N210">
+        <v>12.6</v>
+      </c>
+      <c r="O210">
+        <v>12</v>
+      </c>
+      <c r="P210">
+        <v>12.5</v>
+      </c>
+      <c r="Q210">
+        <v>18.55</v>
+      </c>
+      <c r="R210">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="U210">
+        <v>17</v>
+      </c>
+      <c r="V210">
+        <v>-8.742130867014311</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>33</v>
+      </c>
+      <c r="C211" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E211" t="s">
+        <v>95</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+      <c r="G211">
+        <v>12.7</v>
+      </c>
+      <c r="H211">
+        <v>12.5</v>
+      </c>
+      <c r="I211">
+        <v>25.2</v>
+      </c>
+      <c r="J211">
+        <v>12.6</v>
+      </c>
+      <c r="K211">
+        <v>12.4</v>
+      </c>
+      <c r="L211">
+        <v>12.1</v>
+      </c>
+      <c r="M211">
+        <v>18.55</v>
+      </c>
+      <c r="N211">
+        <v>12</v>
+      </c>
+      <c r="O211">
+        <v>12.6</v>
+      </c>
+      <c r="P211">
+        <v>12.8</v>
+      </c>
+      <c r="Q211">
+        <v>18.7</v>
+      </c>
+      <c r="R211">
+        <v>62.45</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>62.45</v>
+      </c>
+      <c r="U211">
+        <v>17</v>
+      </c>
+      <c r="V211">
+        <v>-11.44213086701431</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>33</v>
+      </c>
+      <c r="C212" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212" s="2">
+        <v>45486</v>
+      </c>
+      <c r="E212" t="s">
+        <v>95</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>12.1</v>
+      </c>
+      <c r="H212">
+        <v>12</v>
+      </c>
+      <c r="I212">
+        <v>24.1</v>
+      </c>
+      <c r="J212">
+        <v>12</v>
+      </c>
+      <c r="K212">
+        <v>11.9</v>
+      </c>
+      <c r="L212">
+        <v>11.9</v>
+      </c>
+      <c r="M212">
+        <v>17.9</v>
+      </c>
+      <c r="N212">
+        <v>12.1</v>
+      </c>
+      <c r="O212">
+        <v>12.2</v>
+      </c>
+      <c r="P212">
+        <v>12.1</v>
+      </c>
+      <c r="Q212">
+        <v>18.2</v>
+      </c>
+      <c r="R212">
+        <v>60.2</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>60.2</v>
+      </c>
+      <c r="U212">
+        <v>17</v>
+      </c>
+      <c r="V212">
+        <v>-13.69213086701431</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>34</v>
+      </c>
+      <c r="C213" t="s">
+        <v>47</v>
+      </c>
+      <c r="D213" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E213" t="s">
+        <v>96</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+      <c r="G213">
+        <v>17.7</v>
+      </c>
+      <c r="H213">
+        <v>17.6</v>
+      </c>
+      <c r="I213">
+        <v>35.3</v>
+      </c>
+      <c r="J213">
+        <v>17.6</v>
+      </c>
+      <c r="K213">
+        <v>17.7</v>
+      </c>
+      <c r="L213">
+        <v>17.8</v>
+      </c>
+      <c r="M213">
+        <v>26.55</v>
+      </c>
+      <c r="N213">
+        <v>17.1</v>
+      </c>
+      <c r="O213">
+        <v>18</v>
+      </c>
+      <c r="P213">
+        <v>17.9</v>
+      </c>
+      <c r="Q213">
+        <v>26.5</v>
+      </c>
+      <c r="R213">
+        <v>88.34999999999999</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>88.34999999999999</v>
+      </c>
+      <c r="U213">
+        <v>18</v>
+      </c>
+      <c r="V213">
+        <v>13.92473863265974</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>34</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E214" t="s">
+        <v>96</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>16</v>
+      </c>
+      <c r="H214">
+        <v>15.9</v>
+      </c>
+      <c r="I214">
+        <v>31.9</v>
+      </c>
+      <c r="J214">
+        <v>16.2</v>
+      </c>
+      <c r="K214">
+        <v>16.2</v>
+      </c>
+      <c r="L214">
+        <v>16.5</v>
+      </c>
+      <c r="M214">
+        <v>24.45</v>
+      </c>
+      <c r="N214">
+        <v>16.1</v>
+      </c>
+      <c r="O214">
+        <v>16.2</v>
+      </c>
+      <c r="P214">
+        <v>17.3</v>
+      </c>
+      <c r="Q214">
+        <v>24.8</v>
+      </c>
+      <c r="R214">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="U214">
+        <v>18</v>
+      </c>
+      <c r="V214">
+        <v>6.724738632659751</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>34</v>
+      </c>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E215" t="s">
+        <v>96</v>
+      </c>
+      <c r="F215">
+        <v>3</v>
+      </c>
+      <c r="G215">
+        <v>15.7</v>
+      </c>
+      <c r="H215">
+        <v>15.6</v>
+      </c>
+      <c r="I215">
+        <v>31.3</v>
+      </c>
+      <c r="J215">
+        <v>15.7</v>
+      </c>
+      <c r="K215">
+        <v>15.9</v>
+      </c>
+      <c r="L215">
+        <v>16.2</v>
+      </c>
+      <c r="M215">
+        <v>23.9</v>
+      </c>
+      <c r="N215">
+        <v>15.8</v>
+      </c>
+      <c r="O215">
+        <v>16.5</v>
+      </c>
+      <c r="P215">
+        <v>16.9</v>
+      </c>
+      <c r="Q215">
+        <v>24.6</v>
+      </c>
+      <c r="R215">
+        <v>79.8</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>79.8</v>
+      </c>
+      <c r="U215">
+        <v>18</v>
+      </c>
+      <c r="V215">
+        <v>5.374738632659742</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>34</v>
+      </c>
+      <c r="C216" t="s">
+        <v>53</v>
+      </c>
+      <c r="D216" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E216" t="s">
+        <v>96</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>13</v>
+      </c>
+      <c r="H216">
+        <v>13.2</v>
+      </c>
+      <c r="I216">
+        <v>26.2</v>
+      </c>
+      <c r="J216">
+        <v>14.9</v>
+      </c>
+      <c r="K216">
+        <v>13.3</v>
+      </c>
+      <c r="L216">
+        <v>13.3</v>
+      </c>
+      <c r="M216">
+        <v>20.75</v>
+      </c>
+      <c r="N216">
+        <v>12.2</v>
+      </c>
+      <c r="O216">
+        <v>13.4</v>
+      </c>
+      <c r="P216">
+        <v>14.6</v>
+      </c>
+      <c r="Q216">
+        <v>20.1</v>
+      </c>
+      <c r="R216">
+        <v>67.05</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>67.05</v>
+      </c>
+      <c r="U216">
+        <v>18</v>
+      </c>
+      <c r="V216">
+        <v>-7.375261367340258</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>34</v>
+      </c>
+      <c r="C217" t="s">
+        <v>37</v>
+      </c>
+      <c r="D217" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E217" t="s">
+        <v>96</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <v>12.4</v>
+      </c>
+      <c r="H217">
+        <v>12.7</v>
+      </c>
+      <c r="I217">
+        <v>25.1</v>
+      </c>
+      <c r="J217">
+        <v>14.5</v>
+      </c>
+      <c r="K217">
+        <v>12.8</v>
+      </c>
+      <c r="L217">
+        <v>12.7</v>
+      </c>
+      <c r="M217">
+        <v>20</v>
+      </c>
+      <c r="N217">
+        <v>11.7</v>
+      </c>
+      <c r="O217">
+        <v>13</v>
+      </c>
+      <c r="P217">
+        <v>14.1</v>
+      </c>
+      <c r="Q217">
+        <v>19.4</v>
+      </c>
+      <c r="R217">
+        <v>64.5</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>64.5</v>
+      </c>
+      <c r="U217">
+        <v>18</v>
+      </c>
+      <c r="V217">
+        <v>-9.925261367340255</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>34</v>
+      </c>
+      <c r="C218" t="s">
+        <v>38</v>
+      </c>
+      <c r="D218" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E218" t="s">
+        <v>96</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>14.1</v>
+      </c>
+      <c r="H218">
+        <v>14.8</v>
+      </c>
+      <c r="I218">
+        <v>28.9</v>
+      </c>
+      <c r="J218">
+        <v>14.4</v>
+      </c>
+      <c r="K218">
+        <v>14.2</v>
+      </c>
+      <c r="L218">
+        <v>14.1</v>
+      </c>
+      <c r="M218">
+        <v>21.35</v>
+      </c>
+      <c r="N218">
+        <v>13.3</v>
+      </c>
+      <c r="O218">
+        <v>14.2</v>
+      </c>
+      <c r="P218">
+        <v>13.6</v>
+      </c>
+      <c r="Q218">
+        <v>20.55</v>
+      </c>
+      <c r="R218">
+        <v>70.8</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>70.8</v>
+      </c>
+      <c r="U218">
+        <v>18</v>
+      </c>
+      <c r="V218">
+        <v>-3.625261367340258</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>35</v>
+      </c>
+      <c r="C219" t="s">
+        <v>31</v>
+      </c>
+      <c r="D219" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E219" t="s">
+        <v>97</v>
+      </c>
+      <c r="F219">
+        <v>5</v>
+      </c>
+      <c r="G219">
+        <v>14.9</v>
+      </c>
+      <c r="H219">
+        <v>14.7</v>
+      </c>
+      <c r="I219">
+        <v>29.6</v>
+      </c>
+      <c r="J219">
+        <v>15.5</v>
+      </c>
+      <c r="K219">
+        <v>14.7</v>
+      </c>
+      <c r="L219">
+        <v>14.4</v>
+      </c>
+      <c r="M219">
+        <v>22.3</v>
+      </c>
+      <c r="N219">
+        <v>14.5</v>
+      </c>
+      <c r="O219">
+        <v>14.7</v>
+      </c>
+      <c r="P219">
+        <v>14.4</v>
+      </c>
+      <c r="Q219">
+        <v>21.8</v>
+      </c>
+      <c r="R219">
+        <v>73.7</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>73.7</v>
+      </c>
+      <c r="U219">
+        <v>18</v>
+      </c>
+      <c r="V219">
+        <v>-0.7252613673402521</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>35</v>
+      </c>
+      <c r="C220" t="s">
+        <v>32</v>
+      </c>
+      <c r="D220" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E220" t="s">
+        <v>97</v>
+      </c>
+      <c r="F220">
+        <v>4</v>
+      </c>
+      <c r="G220">
+        <v>14.5</v>
+      </c>
+      <c r="H220">
+        <v>14.1</v>
+      </c>
+      <c r="I220">
+        <v>28.6</v>
+      </c>
+      <c r="J220">
+        <v>15</v>
+      </c>
+      <c r="K220">
+        <v>14.1</v>
+      </c>
+      <c r="L220">
+        <v>14.2</v>
+      </c>
+      <c r="M220">
+        <v>21.65</v>
+      </c>
+      <c r="N220">
+        <v>14.1</v>
+      </c>
+      <c r="O220">
+        <v>14.2</v>
+      </c>
+      <c r="P220">
+        <v>13.7</v>
+      </c>
+      <c r="Q220">
+        <v>21</v>
+      </c>
+      <c r="R220">
+        <v>71.25</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>71.25</v>
+      </c>
+      <c r="U220">
+        <v>18</v>
+      </c>
+      <c r="V220">
+        <v>-3.175261367340255</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>35</v>
+      </c>
+      <c r="C221" t="s">
+        <v>33</v>
+      </c>
+      <c r="D221" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E221" t="s">
+        <v>97</v>
+      </c>
+      <c r="F221">
+        <v>3</v>
+      </c>
+      <c r="G221">
+        <v>13.4</v>
+      </c>
+      <c r="H221">
+        <v>13.1</v>
+      </c>
+      <c r="I221">
+        <v>26.5</v>
+      </c>
+      <c r="J221">
+        <v>12.9</v>
+      </c>
+      <c r="K221">
+        <v>13.1</v>
+      </c>
+      <c r="L221">
+        <v>14.1</v>
+      </c>
+      <c r="M221">
+        <v>20.05</v>
+      </c>
+      <c r="N221">
+        <v>12.8</v>
+      </c>
+      <c r="O221">
+        <v>12.9</v>
+      </c>
+      <c r="P221">
+        <v>12.7</v>
+      </c>
+      <c r="Q221">
+        <v>19.2</v>
+      </c>
+      <c r="R221">
+        <v>65.75</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>65.75</v>
+      </c>
+      <c r="U221">
+        <v>18</v>
+      </c>
+      <c r="V221">
+        <v>-8.675261367340255</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>35</v>
+      </c>
+      <c r="C222" t="s">
+        <v>54</v>
+      </c>
+      <c r="D222" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E222" t="s">
+        <v>97</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222">
+        <v>12.8</v>
+      </c>
+      <c r="H222">
+        <v>12.7</v>
+      </c>
+      <c r="I222">
+        <v>25.5</v>
+      </c>
+      <c r="J222">
+        <v>12.8</v>
+      </c>
+      <c r="K222">
+        <v>12.6</v>
+      </c>
+      <c r="L222">
+        <v>12.1</v>
+      </c>
+      <c r="M222">
+        <v>18.75</v>
+      </c>
+      <c r="N222">
+        <v>12.2</v>
+      </c>
+      <c r="O222">
+        <v>12.8</v>
+      </c>
+      <c r="P222">
+        <v>13.2</v>
+      </c>
+      <c r="Q222">
+        <v>19.1</v>
+      </c>
+      <c r="R222">
+        <v>63.35</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>63.35</v>
+      </c>
+      <c r="U222">
+        <v>18</v>
+      </c>
+      <c r="V222">
+        <v>-11.07526136734025</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>35</v>
+      </c>
+      <c r="C223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" s="2">
+        <v>45487</v>
+      </c>
+      <c r="E223" t="s">
+        <v>97</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>12.2</v>
+      </c>
+      <c r="H223">
+        <v>12.2</v>
+      </c>
+      <c r="I223">
+        <v>24.4</v>
+      </c>
+      <c r="J223">
+        <v>12.3</v>
+      </c>
+      <c r="K223">
+        <v>12.1</v>
+      </c>
+      <c r="L223">
+        <v>11.6</v>
+      </c>
+      <c r="M223">
+        <v>18</v>
+      </c>
+      <c r="N223">
+        <v>12.4</v>
+      </c>
+      <c r="O223">
+        <v>12.2</v>
+      </c>
+      <c r="P223">
+        <v>12.2</v>
+      </c>
+      <c r="Q223">
+        <v>18.4</v>
+      </c>
+      <c r="R223">
+        <v>60.8</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>60.8</v>
+      </c>
+      <c r="U223">
+        <v>18</v>
+      </c>
+      <c r="V223">
+        <v>-13.62526136734026</v>
       </c>
     </row>
   </sheetData>
